--- a/apps/report_zap/zap_report.xlsx
+++ b/apps/report_zap/zap_report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sonic\PycharmProjects\Github\python_tool\apps\zap\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProject\tool\python_tool\apps\report_zap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{977F634C-0696-4AEB-9924-79EB0492BCB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F545AAE-FBF8-402A-A5D7-19C347DE0A15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-1710" windowWidth="11020" windowHeight="18960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="zap_report" sheetId="1" r:id="rId1"/>
@@ -386,26 +386,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>• 在允許的情況下更新到OpenSSL 1.0.1g或更高版本。 
-• 從供應商處獲取補丁（大多數Linux發行商已經發布了更新的軟件包Fedora，RedHat，CentOS，Debian等）。  
-•如果您有權變更原始碼，請關閉TLS HeartBeats。 
-• 變更非對稱私鑰和共享密鑰、重新分發HTTPS憑證、取消舊憑證、因為它們可能已被洩漏或竄改。 
-• 更新您的IPS和防火牆簽名，並啟用Heartbleed簽名。 如有必要，請與您的供應商聯繫。"</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>• If possible, update to OpenSSL 1.0.1g or later. 
-• Otherwise, get a patch from your vendor. Most Linux distribution vendors have been publishing updated packages (Fedora, RedHat, CentOS, Debian, etc). 
-• Turn off TLS HeartBeats if you have access to the source code. 
-• Change asymmetric private keys and shared secret keys, since these may have been compromised. 
-• Re-issue HTTPS certificates 
-• Invalidate session keys and cookies 
-• Reset passwords and shared secrets 
-• Revoke old certificates 
-• Update your IPS and firewall signatures and enable Heartbleed signatures. Contact your vendor if necessary.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>Viewstate</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -419,107 +399,6 @@
   </si>
   <si>
     <t>缺少CSRF Token</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>We detected that your website is missing anti-CSRF tokens. A cross-site request forgery(CSRF) is an attack that involves spoofing a victim's authenticated session to perform sensitive actions, such as making a payment or transfer of funds without the victim's knowledge.
- This may result in financial loss, credential theft, and other information disclosure. CSRF attacks are effective in a number of situations including：
-• The victim has an active session on the target site. 
-• The victim is authenticated via http auth on the target site. 
-• The victim is on the same local network as the target site.
- Cross-site request forgery is also known as CSRF, XSRF, one-click attack, session riding, confused deputy, and sea surf.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>檢測到您的網站缺少CSRF Tokens，可能會導致跨站點請求偽造攻擊(CSRF)。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>​</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 此攻擊會導致攻擊者以使用者名義發送郵件、消息，盜取帳號，甚至於購買商品，虛擬貨幣轉帳等，使個人隱私洩露以及財產受到損害。 CSRF是一種誘使使用者在他們不知道的情況發送http請求到目標網站，在許多情況下有效，包括：
-•受害者在目標站點上進行活動的session。 
-•通過目標站點上的http auth對受害者進行身份驗證。 
-•受害人與目標站點位於同源網路上。
- CSRF可以在同源策略的範圍內進行，主要用於使用受害人權限對目標站點執行操作。</t>
-    </r>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">• Use a vetted library or framework that provides constructs that make this weakness easier to avoid. For example, use anti-CSRF packages such as the OWASP csrfguard. 
-• Generate a unique nonce for each form and place the nonce into the form and verify the nonce upon receipt of the form. Be sure that the nonce is not predictable.
-• Identify especially dangerous operations, such as financial actions and account changes, and send a separate confirmation request to ensure that the user intended to perform that operation. 
-• Use the esapi session management control, which includes a component for CSRF.
-• Do not use the get method for any request that triggers a state change.
-• Check the http referer header to see if the request originated from an expected page. </t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>• 為每個表單生成唯一且不可預測的隨機數，將隨機數放入表單，並在收到表單後對隨機數進行驗證。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>​</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-• 為了要避免CSRF 攻擊，建議在每階段架構和設計時，使用經過審查的套件或框架。
-• 使用Anti-CSRF套件，例如owasp csrfguard。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>​</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-• 使用esapi session管理套件管理session， 避免使用任何會觸發狀態更改請求的get method。
-• 檢查http引用標頭以查看該請求是否源自預期的頁面。</t>
-    </r>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -536,14 +415,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>• When evaluating request parameters, use a whitelist of acceptable inputs and reject any input that does not strictly conform to specifications. Use blacklists to detect potential attacks or reject malformed inputs. Do not rely exclusively on blacklist.
-•During input validation, consider all relevant properties including length, type of input, syntax consistency, and conformance to business rules.
-• For filenames, limit the allowed character set and file extensions, and exclude directory separators such as /. 
-• Make sure that your application does not decode the same input twice. 
-• Run your code using the lowest privileges that are required, and in a jail or similar sandbox environment that enforces strict boundaries between the process and the operating system. This ensures that high privileged actions are prohibited even when an attacker has compromised an account."</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>Source File Leakage</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -553,62 +424,6 @@
   </si>
   <si>
     <t>We detected that your website leaks source code using local file inclusion. Source code often contains some form of sensitive information, such as configuration-related information (e.g. database credentials), username, passwords, or the internal workings and business logic of the web application. If source code files are disclosed, an attacker may use such information to discover logical flaws or obtain account information from databases or administrative panels. This may escalate to a chain of attacks, including SQL Injection, database takeovers, and remote code execution which would lead to data leakage, malware infections, or service denial.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>• 確認揭露的原始碼是否需要公開。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>​</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 
-• 如果應用程序需要這些文件，請更改權限禁止公開存取該文件，否則，請從Web伺服器中將其刪除。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>​</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 
-• 從Web伺服器上刪除所有臨時和備份文件。</t>
-    </r>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>• Confirm exactly what aspects of the source code are actually disclosed and determine if it is necessary 
-• If a file is required by the application, change its permissions to prevent public users from accessing it. Otherwise, remove it from the web server. 
-• Remove all temporary and backup files from the web server."</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -729,14 +544,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>• Perform input validation on all data using, for example, regular expressions or strconv() to transform the data and perform other checks 
-• Use prepared statements with variable binding (aka parameterized queries) to write database queries. This forces the developer to first define all the SQL code, and then pass in each parameter to the query later, regardless of what user input is supplied. For example, use PreparedStatement() in Java, SqlCommand() or OleCommand() in .NET, and sqlite3_prepare() in SQLite. 
-• Encode user input to prevent speical characters from being evaluated as commands. 
-• When a SQL query error has occured, avoid showing the error messages on the website. This allows an attacker to fingerprint your database using such information leakage. 
-• Minimize the privileges assigned to every database account in your environment to minimize the damage of a successful SQL injection attack.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>Vulnerable JS Library</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -774,15 +581,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>• 確保程式語言的配置中禁用遠程文件引用，且若是在
-PHP中可以allow_url_include設置為'0'。 此外，建議所有的輸入，例如：URL 需進行驗證，才將資料進行傳遞。"</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>• Make sure that remote file references are disabled in the configuration, and if the Allow_url_include can be set to '0' in PHP. In addition, it is recommended that all inputs such as URLs need to be validated before passing the data</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>Error Message Containing Sensitive Information</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -801,27 +599,6 @@
   </si>
   <si>
     <t>Update the affected server software, or modify the scripts so that they  properly validate encrypted data before attempting decryption.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">• 將顯示的錯誤訊息隱藏確保攻擊者無法查看錯誤訊息中的敏感資訊。
-• 將顯示錯誤訊息的應用程序或框架版本更新至最新或安全的穩定版本。 </t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>•檢查輸入的資料是否為期望的資料格式，可使用正規表達式或其他方法進行過濾，防止預期外的輸入。 
-•不要直接拼接 SQL 查詢語法，而是使用資料庫或第三方套件提供的參數化查詢接口。
-•對使用者的輸入進行轉義或是編碼處理，避免含有特殊字符的字串被當作指令解析。
-•發生 SQL 查詢語法錯誤時，避免直接將錯誤訊息或是 SQL 查詢結果顯示於頁面上，防止駭客透過此洩露資訊進行攻擊。 
-•限制用戶對資料庫的存取權限，僅給予最低能滿足需求的權限，進而減少此攻擊對資料庫的危害。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>• Perform input validation on all data using, for example, regular expressions perform other checks.
-• Use prepared statements with variable binding (aka parameterized queries) to write database queries. This forces the developer to first define all the SQL code, and then pass in each parameter to the query later, regardless of what user input is supplied.
-• Encode user input to prevent speical characters from being evaluated as commands. 
-• When a SQL query error has occured, avoid showing the error messages on the website. This allows an attacker to fingerprint your database using such information leakage. 
-• Minimize the privileges assigned to every database account in your environment to minimize the damage of a successful SQL injection attack.</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -906,11 +683,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>• 將流量代理到已知上游Server，通過IP地址或DNS名稱來標識Server進行過濾。 
-• 在NGINX配置中或使用Web應用程序防火牆（WAF），將所有帶有異常標頭值的請求丟棄。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>Remote OS Command Execution</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -928,22 +700,6 @@
   </si>
   <si>
     <t>Medium</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>• 做好輸入驗證與檢查，不論是前後端都應假設輸入都是惡意且不可信任的 
-• 檢查文法與語意，應確認每個輸入欄位是否為合理的資料類型與內容，例如年齡的欄位在文法上應只接受0-9的數字，而語意上應確認此數字介於 0-120。 
-• 難以定義文法的自由格式，都應經由編碼轉義為純字符串來處理，防止此內容被視為程式碼執行。許多程式框架都有提供內建編碼函式庫，可多加利用。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>• 做好輸入驗證與檢查，不論是前後端都應假設輸入都是惡意且不可信任的 。
-• 應確認每個輸入欄位是否為合理的資料類型與內容，例如年齡的欄位在文法上應只接受0-9的數字，而語意上應確認此數字介於 0-120。 
-• 任何輸入，尤其是難以定義文法的自由格式，都應經由編碼轉義為純字符串來處理，防止此內容被視為程式碼執行。許多程式框架都有提供內建編碼函式庫，可多加利用。 
-• 絕對不要將使用者輸入放入 &lt;script&gt;、註解、屬性名稱、標籤名稱、內聯事件監聽器等，因為這些位置都能將字符串作為程式碼運行 。
-• 對cookie設定HttpOnly的屬性，確保程式碼沒有存取權 
-• 設定X-XSS-Protection：0的標頭 
-• 設定內容安全策略（CSP）的標頭，可明確定義允許瀏覽器在該頁面上加載的內容來源，涵蓋的類型包括JavaScript，CSS，HTML框架，字體，圖像和可嵌入對象，例如Java applet，ActiveX，影音文件"</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -965,37 +721,11 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>• 如果您的網站不須使用X-Frame，請將X-Frame-Options設定為DENY，以預防攻擊者利用X-Frame攻擊。
-以常見的網站伺服器Apache為例，請在security.conf中新增一行設定「Header set X-Frame-Options: "DENY"」，其他網站伺服器請參考相關安全性設定。
-• 如果您的網站會用到來自內部的X-Frame，請將X-Frame-Options設定為SAMEORIGIN，以防止從外部嵌入的X-Frame。以常見的網站伺服器Apache為例，請在security.conf中新增一行設定「Header set X-Frame-Options: "SAMEORIGIN"」，其他網站伺服器請參考相關安全性設定。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">• 'X-Frame-Options： DENY' completely denies to be loaded in frame/iframe. In /etc/apache2/conf-enabled/security.conf (debian) or /etc/httpd/conf/httpd.conf (redhat), add the entry： Header set X-Frame-Options： DENY 
-• 'X-Frame-Options： SAMEORIGIN' allows only if the site which wants to load has a same origin. In /etc/apache2/conf-enabled/security.conf (debian) or /etc/httpd/conf/httpd.conf (redhat), add the entry： Header set X-Frame-Options： SAMEORIGIN 
-</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>Reverse Tabnabbing</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>逆向 Tabnabbing</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>• Add 'rel=""noopener noreferrer""' to every 'a'-element that has 'target=""_blank""'. 'noopener' ensures that the linked page does not have access to 'window.opener' from the linking page. 'noreferrer' makes sure that the request referrer header is not being sent. This is supported by most recent versions of modern browsers, with Internet Explorer being an exception. • If you are using JavaScript, the following achieves the same： 'var myNewWindow = window.open(url, name, ""noopener,noreferrer"") myNewWindow.opener = null' 
-• If you show user-generated content on your page you must sanitize the input and apply ""noopener noreferrer"" to every link.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>• 將html中所有用到開新視窗的跳轉連結加上noopener與noreferrer設定，以跳轉至google為例
-&lt;a href="https://www.google.com" target="_blank" rel="noreferrer noopenner"&gt;Google&lt;/a&gt;
-加上安全性設定後可以確保使用者當前瀏覽的頁面，不會因為開新視窗後被另開的這個網站給影響。
-• 將javascript中所有用到開新視窗的跳轉連結加上noopener與noreferrer設定，以跳轉至google為例
-window.open('https://www.google.com', '_blank', 'noopener,noreferrer')
-加上安全性設定後可以確保使用者當前瀏覽的頁面，不會因為開新視窗後被另開的這個網站給影響。</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -1020,78 +750,7 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">• If the application does not require cross-origin requests, check that no policy is set. 
-• The 'Access-Control-Allow-Origin' header should never be set to '*' or 'null', unless the whole content of the application is made to be public. Always ensure that it allows the most specific and restrictive set of domains. </t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">• 使用嚴格符合規範的白名單，拒絕任何不符合規範的輸入。 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>​</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-• 在執行輸入驗證時，請考慮所有可能相關的屬性，包括輸入的長度、類型等。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>​</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-• 對於文件名，限制允許的字符集和文件擴展名，並排除目錄分隔符，例如 /。
-• 確保您的應用程序不會對相同的輸入進行兩次解碼。
-• 如果可能，請創建僅用於單個任務的具有有限的特權的隔離帳戶，即使攻擊者成功獲取該權限，也無法立即訪問網頁的其餘需較高權限部分或其環境。"</t>
-    </r>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>• 停用轉址功能 。
-• 排除特殊字元符號，像是「&lt;」、「/」、「&gt;」等避免注入攻擊 。
-• 建立轉址白名單，只有在白名單上的網路位址才能進行導向。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>檢測到您的網站有不安全的重導向風險，原因是您的網站開放在URL重新導向的功能，這會使用戶訪問可信任的網站URL時，將用戶重新導向到惡意網站，屬於釣魚手段的一種。 舉例來說：http://true.com/etrue.php?url=http://evil.com 最後會被導向到evil中。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>•檢查輸入的資料是否為期望的資料格式，可使用正規表達式或其他方法進行過濾，防止預期外的輸入。 
-•使用資料庫或第三方套件提供的參數化查詢接口，避免直接拼接 SQL 查詢語法。
-•對使用者的輸入進行轉義或是編碼處理，避免含有特殊字符的字串被當作指令解析。
-•發生 SQL 查詢語法錯誤時，避免直接將錯誤訊息或是 SQL 查詢結果顯示於頁面上，防止駭客透過此洩露資訊進行攻擊。 
-•限制用戶對資料庫的存取權限，僅給予最低能滿足需求的權限，進而減少此攻擊對資料庫的危害。</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -1109,25 +768,6 @@
   </si>
   <si>
     <t>CSP is an added layer of security that helps to detect and mitigate certain types of attacks, including Cross Site Scripting (XSS) and data injection attacks. Covered types are JavaScript, CSS, HTML frames, fonts, images and embeddable objects such as Java applets, ActiveX, audio and video files.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>• 限制外部連入的檔案和禁用inline語法，這是預設全部阻擋的寫法，也是最嚴格最安全的方案，設定範例如下
-content-security-policy: default-src 'none';
-• 增加外部連入的白名單，限制外部連入的來源，請避免在來源url中使用「*」，設定範例如下
-content-security-policy: default-src 'none'; 
-script-src 'self' https://www.google.com;
-• 避免在CSP設定中使用「unsafe-inline」</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>• To prevent the use of 'unsafe-inline' but still use inline scripts and styles on a page, consider converting them to safe sources via nonces or hashes. 
-• For example, using the nonce-source you may specify inline style blocks with： ""Content-Security-Policy： style-src 'nonce-2726c7f26c'"" and set the same nonce on the style element： '&lt;style nonce=""2726c7f26c""&gt; #inline-style { background： red; } &lt;/style&gt;' • Hash-source inline styles can be achieved similarly.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>• 如果應用程序不需要跨域請求，請關閉與跨域有關的設定，讓Web瀏覽器以更嚴格的方式實施同源限制。 
-• 如需使用跨域請求，需指定來源網域且內容不可以包含「*」與「null」，以常見的網站伺服器Apache為例，請在httpd.conf中新增一行設定「Header set Access-Control-Allow-Origin "example.com"」，其他網站伺服器請參考供應商的相關設定。</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -1179,63 +819,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>• Disable the 'TRACE' method on the proxy servers, as well as the origin web/application server. 
-• Disable the 'OPTIONS' method on the proxy servers, as well as the origin web/application server, if it is not required for other purposes, such as 'CORS' (Cross Origin Resource Sharing). 
-• Configure the web and application servers with custom error pages, to prevent 'fingerprintable' product-specific error pages being leaked to the user in the event of HTTP errors, such as 'TRACK' requests for non-existent pages. 
-• Configure all proxies, application servers, and web servers to prevent disclosure of the technology and version information in the 'Server' and 'X-Powered-By' HTTP response headers.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>• 建議在代理伺服器以及原始Web /應用程序伺服器上禁用TRACE method。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>​</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 
-• 建議在代理伺服器以及原始Web /應用程序伺服器上禁用OPTIONS method，防止攻擊者藉由OPTIONS的查詢來檢查網站是否支援TRACE。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>​</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 
-• 如果已禁用TRACE method，建議在網站中使用自定義錯誤頁面，防止攻擊者往不存在的頁面發送TRACE請求時，預設的錯誤頁面洩露過多資訊。</t>
-    </r>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>HTTPS form in insecure HTTP page</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -1249,16 +832,6 @@
   </si>
   <si>
     <t>檢測到您網站中此HTTPS表單是從不安全的HTTP頁面提供的，可能會產生安全疑慮。 例如當訂購表單中的資料含機敏資訊時會導致機敏資訊的洩漏，此外也可能導致攻擊者竄改此表單的內容將送件地址改為攻擊者接收。 此風險是因為攻擊者基於HTTP頁面未加密內容的風險而使用中間人攻擊來劫持此頁面，替換或欺騙表單的目標。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>• The form should be served from a secure HTTPS page. 
-• Configure the site to use HTTPS and ensure all assets are loaded over HTTPS.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>• 表單內容都應從安全的HTTPS頁面提供。 
-• 配置站點使用HTTPS，並確保所有資源都是通過HTTPS加密傳輸。</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -1279,16 +852,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>• Review the source code of this page. 
-• Implement custom error pages. Consider implementing a mechanism to provide a unique error reference/identifier to the client (browser) while logging the details on the server side and not exposing them to the user.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>• 查看此頁面的原始碼，並自定義錯誤頁面。 
-• 當發生錯誤時將資料（錯誤參考碼/識別碼）記錄在伺服器端，而不向用戶公開。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>Information Leak：.env</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -1325,15 +888,6 @@
   </si>
   <si>
     <t xml:space="preserve">Ensure the .htaccess file is not accessible. </t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>• 確認網站上.htaccess 檔案的存取權限，確保使用者無法下載.htaccess 。
-• 設定完成後以報告中路徑測試，再次確認使用者無法存取檔案</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>• 確認掃描報告中列出的文件，確認此文件有公開的必要，否則則移除此類型文件，確保資料沒有洩漏的風險。</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -1366,11 +920,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>• 建議在後端程序建立嚴格的輸入檢查來防止緩衝區溢位，常見方法為對欄位最大長度進行限制。
-• 後台建立完整的例外處理機制，防止攻擊者利用緩衝區中斷系統服務。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>Content Security Policy (CSP) Header Not Set</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -1392,11 +941,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>• 請使用最新版本函式庫(jQuery 3.5.0以上版本)。
-程式或框架中，若有使用到第三方資源，則需特別注意引用的版本是否安全，定期更新使用最新版本或無漏洞之穩定版本。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>Misconfigured Cookie： Missing SameSite Attribute</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -1406,54 +950,6 @@
   </si>
   <si>
     <t>檢測到您的網站在標頭中缺少SameSite屬性，該屬性可用來阻止瀏覽器將Cookies 跨網站發送。 主要是用以減少跨網站信息洩漏的風險，並針對跨網站偽造要求的攻擊(cross-site request forgery attacks)作保護。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>• SameSite有三個數值</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>—</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Strict、Lax和None建議依據網站需求參考Strict＆Lax進行設定Strict Strict的要求最為嚴格，完全禁止第三方Cookies，只有當前網頁的 URL與請求目標一致，才會送出Cookie。 這個規則非常嚴格，適合用於銀行需要交易的網站中，保障客戶資料的安全。Lax Lax的要求則較為寬鬆，大多數情況也是不發送Cookie到第三方 ，但是Get請求除外。 這是一個平衡網路安全和使用者體驗的做法。由於Cookies可以跨網站發送，而風險較高的要求，例如POST，在Lax的設定下將會被禁止，阻止cross-site request forgery attacks 進行。</t>
-    </r>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -1478,10 +974,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>• 在您的WebServer設定一個帶有'nosniff'值的'X-Content-Type-Options'標頭。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>Cross-Domain File Inclusion： Javascript</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -1499,10 +991,6 @@
   </si>
   <si>
     <t>Ensure JavaScript source files are loaded from only trusted sources, and the sources can't be controlled by end users of the application.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>• 確保只從受信任的來源及域載入JavaScript文件 將所有應用程序文件託管在伺服器或直得信任的第三方服務（例如CDN）。</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -1535,11 +1023,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>• 在IIS伺服器中的Web.config修改system.webServer區段：
-&lt;httpProtocol&gt;&lt;customHeaders&gt;&lt;remove name="X-Powered-By" /&gt;&lt;/customHeaders&gt;&lt;/httpProtocol&gt;&lt;/system.webServer&gt;</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>X-AspNet-Version Response Header</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -1585,20 +1068,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>• Please verify if the provided emails are confidential. 
-• Remove or hide all detected emails as appropriate.
-• Please verify if the provided IPs are confidential. 
-• Remove or hide all detected IPs as appropriate.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>• 請驗證所檢測的電子郵件是否為機密信息。 
-• 移除或隱藏所有網頁上檢測到的非公開的電子郵件。
-• 請驗證所檢測的IP位置是否為機密信息。 
-• 移除或隱藏所有網頁上檢測到的非公開的IP位置。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>目錄瀏覽</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -1616,17 +1085,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>• Find the location of Apache's main configuration file 'apache2.conf', usually under '/etc/apache2/apache2.conf'. 
-• Edit this file with root access to your server, and modify this line by adding a preceding '-' sign to the word 'Indexes'： 'Options Indexes FollowSymLinks' change to 'Options -Indexes FollowSymLinks' • Save the file and restart Apache Alternatively, edit the '.htaccess' and modify the Options line as 'Options -Indexes</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>• 查找Apache主要配置文件" apache2.conf”的位置，通常在“ /etc/apache2/apache2.conf”下。 
-• 使用對服務器的root訪問權限來編輯此文件，並通過在單詞“索引”中添加前面的“-”符號來修改此行： '選項索引FollowSymLinks'更改為'選項-索引FollowSymLinks' 。
-• 保存文件並重新啟動Apache 或者，編輯“ .htaccess”並將“選項”行修改為“選項-索引””</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>type</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -1681,16 +1139,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>• The form target should point to a secure HTTPS page. 
-• Configure HTTPS for all HTTP POST request within the web application to ensure communication of data over encrypted channel for security.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>• 表單目標應指向安全的HTTPS頁面。 
-• 為Web應用程序中的所有HTTP POST請求配置HTTPS，以確保所有資源都是通過HTTPS加密傳輸。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>HTTP Basic/Digest Authentication</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -1707,24 +1155,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>• Clearly identifies the host that is requesting authentication credentials 
-• Only allows authentication over encrypted secure channel (HTTPS) 
-• Does not allow authentication transactions to be replayed or authorization tokens to be reused 
-• Does not allow cross-domain authentication requests by default. If cross-domain authentication is desired by a parent site, a white list of domains which are allowed to be authenticated should be defined by CSP or similar site policy. 
-• Whitelist or proxy all inlined content in order to block malicious authentication requests 
-• Keep the authentication token secure and set a short expiration time</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>• 清楚的標識正在請求身份驗證憑據的主機。 
-• 僅允許通過加密的安全通道（HTTPS）進行身份驗證。 
-• 不允許重放身份驗證或重複使用授權token。
-• 默認情況下不允許跨域身份驗證請求，如果父站點需要跨域身份驗證，則應通過CSP或類似的站點策略定義允許進行身份驗證的域白名單。 
-• 將所有內網內容列入白名單或代理，以阻止惡意身份驗證請求。 
-• 確保身份驗證token的安全並設置較短的到期時間。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>Buffer Overflow： Integer Overflow</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -1734,31 +1164,6 @@
   </si>
   <si>
     <t>We have detected that your program returns an error when an unusually large value has been submitted, which potentially indicates an integer overflow error. This vulnerability may cause a service to crash, resulting in service interruption, or worse, may allow an attacker to hijack the execution flow of the program and obtain access to the underlying system. Consequently, an attacker may achieve remote code execution and gain high privileged access, taking control over the system. An integer overflow condition exists when an integer, which has not been sufficiently validated from the input stream, is used within a program.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>• 建議在後端程序建立嚴格的輸入檢查來防止緩衝區溢
-位，一般狀況下建議將欄位長度限制到僅能輸入20個以下的字元。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>•Rewrite the background program using proper checking of the size of user input integers to prevent overflows and divide by 0 errors.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>•Rewrite the background program using proper checking of the size  of user input integers to prevent overflows and divide by 0 errors.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>•Ensure that the SameSite attribute is set to either 'lax' or ideally 'strict' for all cookies.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>•Remove the X-Powered-By HTTP header. To configure this on Apache： Add these lines in httpd.conf： &lt;IfModule mod_headers.c&gt; Header unset X-Powered-By &lt;/IfModule&gt; To configure this on nginx： Add this line in nginx.conf： proxy_hide_header X-Powered-By; Additionally, you must also modify the configuration for used languages(ex： PHP) and framework(ex： Tomcat) to remove the X-Powered-By header. To configure this on IIS： Change the system.webSerer section in Web.config as below： &lt;system.webServer&gt;</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>•Ensure that your web server, application server, load balancer, etc. is configured to set the Content-Security-Policy header, to achieve optimal browser support： 'Content-Security-Policy' for Chrome 25+, Firefox 23+ and Safari 7+, 'X-Content-Security-Policy' for Firefox 4.0+ and Internet Explorer 10+, and 'X-WebKit-CSP' for Chrome 14+ and Safari 6+</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -1818,16 +1223,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>• Always specify a format string as part of program, not as an input. Most format string vulnerabilities are solved by specifying “%s” as format string and not using the data string as format string. • If possible, make the format string a constant. Extract all the variable parts as other arguments to the call. • Rewrite the background program using proper deletion of bad character strings. This will require a recompile of the background executable.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>• 將格式字符串在程序中設定來限制輸入。 例如將“％s”指定為格式字符串。 
-• 如果可能，將格式字符串設置為常數，變數以其他參數儲存。 
-• 重新編譯後端可執行文件，避免不良的字符串規則。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>資料揭露（.env文件）</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -1849,18 +1244,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>• Hide or remove Trace.axd in production stages. 
-• Disable the Trace Viewer unless it is actually required in development. Ensure access to it requires authentication and authorization. 
-• To disable ASP.NET tracing, apply the following changes to your web.config file： &lt;System.Web&gt; &lt;trace enabled=""false"" /&gt; &lt;/System.Web&gt;</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>• 應將此文件隱藏或從生產階段中刪除，因為它可能洩漏大量信息。 
-• 請考慮研發過程中是否實際需要Trace Viewer，如果不需要，則將其禁用。 
-• 若不禁用，請確保任何人進行存取時需要身份驗證和授權。 要禁用ASP.NET跟踪，請將以下更改應用於web.config文件： &lt;System.Web&gt; &lt;trace enabled=""false"" /&gt; &lt;/System.Web&gt;。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>Source SVN Leakage</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -1878,15 +1261,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>• Ensure that SVN metadata files are not deployed to the web server or application server</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>• 確認網站上無.svn/entries的檔案以及設定不允許使用者嘗試在URL輸入此字尾 。
-• 設定完成後以報告中路徑測試，再次確認使用者無法存取檔案。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>XSLT Injection</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -1908,11 +1282,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>• 盡量不使用使用者提供的XSLT檔案匯入 。
-• 網站中的輸入欄位針對XSLT語法進行過濾 。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>標頭配置錯誤（缺少 Strict-Transport-Security）</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -1930,15 +1299,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>•Ensure that your web server, application server, load balancer, 
-etc. is configured to enforce Strict-Transport-Security.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>• 在您的WebServer設定一個Strict-Transport-Security： max-age=31536000; includeSubDomains的標頭 ＊此設定會導致只能通過HTTP進行服務的頁面的訪問失敗。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>Misconfigured Cookie： Missing HttpOnly Attribute</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -1965,10 +1325,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>• 以Java設置HttpOnly為例，可以在WEB-INF/web.xml進行設定 &lt;session-config&gt; &lt;cookie-config&gt; &lt;http-only&gt;true&lt;/http-only&gt; &lt;/cookie-config&gt; &lt;/session-config&gt; 即可設置HttpOnly於session cookie。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>標頭配置錯誤（缺少 Cache-control and Pragma）</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -1986,10 +1342,6 @@
   </si>
   <si>
     <t>Whenever possible ensure the cache-control HTTP header is set with no-cache, no-store, must-revalidate; and that the pragma HTTP header is set with no-cache.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>• 可設定不要存任何快取Cache-Control：no-store或是快取需存取，但是要重新驗證Cache-Control：no-cache 設定快取不能被共用的快取伺服器儲存Cache-Control：private設定快取有效期限Cache-Control：max-age=3600驗證快取伺服器先發送請求訊息給網頁伺服器驗證，確認是有效期限且檔案有更新的回覆，舊的檔案就不能使用。"</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -2006,10 +1358,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>• 以java為例可以在Cookie Interface設置 cookie.setSecure(true); 或是web.xml中設置 &lt;session-config&gt; &lt;cookie-config&gt; &lt;secure&gt;true&lt;/secure&gt; &lt;/cookie-config&gt; &lt;/session-config&gt;。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>Debug Message Leakage</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -2026,16 +1374,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>• Review the source code of this page and remove any debug messages or unprotected debugging functionality. 
-•Only allow debug message logging on the server side and do not expose them to the user.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>• 查看此頁面的原始碼，並移除任何可能顯示給用戶的偵錯信息。確認偵錯用的指令或是api有驗證保護。 
-• 確認偵錯信息的紀錄留存只在伺服器端。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>混合 HTTP HTTPS 內容</t>
   </si>
   <si>
@@ -2078,31 +1416,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>• 避免混合內容導致的安全疑慮，最佳的策略是將所有內容作為HTTPS而不是HTTP。 
-• 通過SSL / TLS可用的頁面必須完全包含通過SSL / TLS傳輸的內容。
-• 對於您自己的域，將所有內容用作HTTPS並修復連接。
-• HTTP嚴格傳輸安全性（HSTS）是一種強制執行安全資源檢索的機制，可以防止用戶錯誤（試圖通過端口80訪問您的網站）和實現錯誤（您的開發人員將不安全的連接放置到安全頁面中）產生的安全風險。 
-• 內容安全策略（CSP）可用於阻止從第三方網站檢索不安全的資源 。
-• 使用“protocol relative URLs”使用戶的瀏覽器根據需要自動選擇HTTP或HTTPS，例如 '&lt;script type=""""text/javascript"""" src=""""//example.com/code.js""""&gt;&lt;/script&gt;'。"</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>• The best strategy to avoid mixed content blocking is to serve all the content as HTTPS instead of HTTP. A page that is available over SSL/TLS must be comprised completely of content which is transmitted over SSL/TLS. 
-• For your own domain, serve all content as HTTPS and fix your links. 
-• HTTP Strict Transport Security (HSTS) is a mechanism that enforces secure resource retrieval, even in the face of user mistakes (attempting to access your web site on port 80) and implementation errors (your developers place an insecure link into a secure page). 
-• Content Security Policy (CSP) can be used to block insecure resource retrieval from third-party web sites. 
-• Use 'protocol relative URLs' to have the user's browser automatically choose HTTP or HTTPS as appropriate, such as '&lt;script type=""text/javascript"" src=""//example.com/code.js""&gt;&lt;/script&gt;'</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>• 移除X-AspNet-Version標頭。 
-• 設定Apache 在 httpd.conf中加入一行：Header unset X-AspNet-Version
-• 設定nginx在 nginx.conf的location區段中加入一行：proxy_hide_header X-AspNet-Version;
-• 設定 IIS在Global.asax的 Application_PreSendRequestHeaders()裡加入一行：response.Headers.remove("X-AspNet-Version") 
-• 設定HAProxy在HAProxy前端組態設定中加入一行： http-response del-header X-AspNet-Version。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>Redirect Response with Large Body Content</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -2119,14 +1432,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>•Ensure that no sensitive information is leaked via redirect responses. Redirect responses should have almost no content.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>• 依據報告檢查並刪除網頁回應中較敏感資訊，如系統資訊或是個人敏感資訊。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>Cookies Not Enforced</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -2140,10 +1445,6 @@
   </si>
   <si>
     <t>檢測到您的網站實際上未執行Cookie，使網站缺乏預期的驗證功能。 這可能導致攻擊者在不被驗證的情況下存取需執行身份驗證範圍的資訊。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>• 檢查報告列表中為實際執行Cookie驗證功能的區域。</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -2197,12 +1498,391 @@
     </r>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
+  <si>
+    <t>•檢查輸入的資料是否為期望的資料格式，可使用正規表達式或其他方法進行過濾，防止預期外的輸入。 
+•不要直接拼接 SQL 查詢語法，而是使用資料庫或第三方套件提供的參數化查詢接口。
+•對使用者的輸入進行轉義或是編碼處理，避免含有特殊字符的字串被當作指令解析。
+•發生 SQL 查詢語法錯誤時，避免直接將錯誤訊息或是 SQL 查詢結果顯示於頁面上，防止駭客透過此洩露資訊進行攻擊。 
+•限制用戶對資料庫的存取權限，僅給予最低能滿足需求的權限，進而減少此攻擊對資料庫的危害。</t>
+  </si>
+  <si>
+    <t>• When evaluating request parameters, use a whitelist of acceptable inputs and reject any input that does not strictly conform to specifications. Use blacklists to detect potential attacks or reject malformed inputs. Do not rely exclusively on blacklist.
+•During input validation, consider all relevant properties including length, type of input, syntax consistency, and conformance to business rules.
+• For filenames, limit the allowed character set and file extensions, and exclude directory separators such as /. 
+• Make sure that your application does not decode the same input twice. 
+• Run your code using the lowest privileges that are required, and in a jail or similar sandbox environment that enforces strict boundaries between the process and the operating system. This ensures that high privileged actions are prohibited even when an attacker has compromised an account."</t>
+  </si>
+  <si>
+    <t>• 使用嚴格符合規範的白名單，拒絕任何不符合規範的輸入。 ​
+• 在執行輸入驗證時，請考慮所有可能相關的屬性，包括輸入的長度、類型等。​
+• 對於文件名，限制允許的字符集和文件擴展名，並排除目錄分隔符，例如 /。
+• 確保您的應用程序不會對相同的輸入進行兩次解碼。
+• 如果可能，請創建僅用於單個任務的具有有限的特權的隔離帳戶，即使攻擊者成功獲取該權限，也無法立即訪問網頁的其餘需較高權限部分或其環境。"</t>
+  </si>
+  <si>
+    <t>• Make sure that remote file references are disabled in the configuration, and if the Allow_url_include can be set to '0' in PHP. In addition, it is recommended that all inputs such as URLs need to be validated before passing the data</t>
+  </si>
+  <si>
+    <t>• 確保程式語言的配置中禁用遠程文件引用，且若是在
+PHP中可以allow_url_include設置為'0'。 此外，建議所有的輸入，例如：URL 需進行驗證，才將資料進行傳遞。"</t>
+  </si>
+  <si>
+    <t>• Ensure that SVN metadata files are not deployed to the web server or application server</t>
+  </si>
+  <si>
+    <t>• 確認網站上無.svn/entries的檔案以及設定不允許使用者嘗試在URL輸入此字尾 。
+• 設定完成後以報告中路徑測試，再次確認使用者無法存取檔案。</t>
+  </si>
+  <si>
+    <t>• Confirm exactly what aspects of the source code are actually disclosed and determine if it is necessary 
+• If a file is required by the application, change its permissions to prevent public users from accessing it. Otherwise, remove it from the web server. 
+• Remove all temporary and backup files from the web server."</t>
+  </si>
+  <si>
+    <t>• 確認揭露的原始碼是否需要公開。​ 
+• 如果應用程序需要這些文件，請更改權限禁止公開存取該文件，否則，請從Web伺服器中將其刪除。​ 
+• 從Web伺服器上刪除所有臨時和備份文件。</t>
+  </si>
+  <si>
+    <t>• 請使用最新版本函式庫(jQuery 3.5.0以上版本)。
+程式或框架中，若有使用到第三方資源，則需特別注意引用的版本是否安全，定期更新使用最新版本或無漏洞之穩定版本。</t>
+  </si>
+  <si>
+    <t>• 以Java設置HttpOnly為例，可以在WEB-INF/web.xml進行設定 &lt;session-config&gt; &lt;cookie-config&gt; &lt;http-only&gt;true&lt;/http-only&gt; &lt;/cookie-config&gt; &lt;/session-config&gt; 即可設置HttpOnly於session cookie。</t>
+  </si>
+  <si>
+    <t>• 以java為例可以在Cookie Interface設置 cookie.setSecure(true); 或是web.xml中設置 &lt;session-config&gt; &lt;cookie-config&gt; &lt;secure&gt;true&lt;/secure&gt; &lt;/cookie-config&gt; &lt;/session-config&gt;。</t>
+  </si>
+  <si>
+    <t>• 可設定不要存任何快取Cache-Control：no-store或是快取需存取，但是要重新驗證Cache-Control：no-cache 設定快取不能被共用的快取伺服器儲存Cache-Control：private設定快取有效期限Cache-Control：max-age=3600驗證快取伺服器先發送請求訊息給網頁伺服器驗證，確認是有效期限且檔案有更新的回覆，舊的檔案就不能使用。"</t>
+  </si>
+  <si>
+    <t>• 確保只從受信任的來源及域載入JavaScript文件 將所有應用程序文件託管在伺服器或直得信任的第三方服務（例如CDN）。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• 'X-Frame-Options： DENY' completely denies to be loaded in frame/iframe. In /etc/apache2/conf-enabled/security.conf (debian) or /etc/httpd/conf/httpd.conf (redhat), add the entry： Header set X-Frame-Options： DENY 
+• 'X-Frame-Options： SAMEORIGIN' allows only if the site which wants to load has a same origin. In /etc/apache2/conf-enabled/security.conf (debian) or /etc/httpd/conf/httpd.conf (redhat), add the entry： Header set X-Frame-Options： SAMEORIGIN 
+</t>
+  </si>
+  <si>
+    <t>• 如果您的網站不須使用X-Frame，請將X-Frame-Options設定為DENY，以預防攻擊者利用X-Frame攻擊。
+以常見的網站伺服器Apache為例，請在security.conf中新增一行設定「Header set X-Frame-Options: "DENY"」，其他網站伺服器請參考相關安全性設定。
+• 如果您的網站會用到來自內部的X-Frame，請將X-Frame-Options設定為SAMEORIGIN，以防止從外部嵌入的X-Frame。以常見的網站伺服器Apache為例，請在security.conf中新增一行設定「Header set X-Frame-Options: "SAMEORIGIN"」，其他網站伺服器請參考相關安全性設定。</t>
+  </si>
+  <si>
+    <t>• 在您的WebServer設定一個帶有'nosniff'值的'X-Content-Type-Options'標頭。</t>
+  </si>
+  <si>
+    <t>• Review the source code of this page and remove any debug messages or unprotected debugging functionality. 
+•Only allow debug message logging on the server side and do not expose them to the user.</t>
+  </si>
+  <si>
+    <t>• 查看此頁面的原始碼，並移除任何可能顯示給用戶的偵錯信息。確認偵錯用的指令或是api有驗證保護。 
+• 確認偵錯信息的紀錄留存只在伺服器端。</t>
+  </si>
+  <si>
+    <t>• 停用轉址功能 。
+• 排除特殊字元符號，像是「&lt;」、「/」、「&gt;」等避免注入攻擊 。
+• 建立轉址白名單，只有在白名單上的網路位址才能進行導向。</t>
+  </si>
+  <si>
+    <t>• Please verify if the provided emails are confidential. 
+• Remove or hide all detected emails as appropriate.
+• Please verify if the provided IPs are confidential. 
+• Remove or hide all detected IPs as appropriate.</t>
+  </si>
+  <si>
+    <t>• 請驗證所檢測的電子郵件是否為機密信息。 
+• 移除或隱藏所有網頁上檢測到的非公開的電子郵件。
+• 請驗證所檢測的IP位置是否為機密信息。 
+• 移除或隱藏所有網頁上檢測到的非公開的IP位置。</t>
+  </si>
+  <si>
+    <t>• Find the location of Apache's main configuration file 'apache2.conf', usually under '/etc/apache2/apache2.conf'. 
+• Edit this file with root access to your server, and modify this line by adding a preceding '-' sign to the word 'Indexes'： 'Options Indexes FollowSymLinks' change to 'Options -Indexes FollowSymLinks' • Save the file and restart Apache Alternatively, edit the '.htaccess' and modify the Options line as 'Options -Indexes</t>
+  </si>
+  <si>
+    <t>• 查找Apache主要配置文件" apache2.conf”的位置，通常在“ /etc/apache2/apache2.conf”下。 
+• 使用對服務器的root訪問權限來編輯此文件，並通過在單詞“索引”中添加前面的“-”符號來修改此行： '選項索引FollowSymLinks'更改為'選項-索引FollowSymLinks' 。
+• 保存文件並重新啟動Apache 或者，編輯“ .htaccess”並將“選項”行修改為“選項-索引””</t>
+  </si>
+  <si>
+    <t>• If possible, update to OpenSSL 1.0.1g or later. 
+• Otherwise, get a patch from your vendor. Most Linux distribution vendors have been publishing updated packages (Fedora, RedHat, CentOS, Debian, etc). 
+• Turn off TLS HeartBeats if you have access to the source code. 
+• Change asymmetric private keys and shared secret keys, since these may have been compromised. 
+• Re-issue HTTPS certificates 
+• Invalidate session keys and cookies 
+• Reset passwords and shared secrets 
+• Revoke old certificates 
+• Update your IPS and firewall signatures and enable Heartbleed signatures. Contact your vendor if necessary.</t>
+  </si>
+  <si>
+    <t>• 在允許的情況下更新到OpenSSL 1.0.1g或更高版本。 
+• 從供應商處獲取補丁（大多數Linux發行商已經發布了更新的軟件包Fedora，RedHat，CentOS，Debian等）。  
+•如果您有權變更原始碼，請關閉TLS HeartBeats。 
+• 變更非對稱私鑰和共享密鑰、重新分發HTTPS憑證、取消舊憑證、因為它們可能已被洩漏或竄改。 
+• 更新您的IPS和防火牆簽名，並啟用Heartbleed簽名。 如有必要，請與您的供應商聯繫。"</t>
+  </si>
+  <si>
+    <t>•Ensure that your web server, application server, load balancer, 
+etc. is configured to enforce Strict-Transport-Security.</t>
+  </si>
+  <si>
+    <t>• 在您的WebServer設定一個Strict-Transport-Security： max-age=31536000; includeSubDomains的標頭 ＊此設定會導致只能通過HTTP進行服務的頁面的訪問失敗。</t>
+  </si>
+  <si>
+    <t>•Remove the X-Powered-By HTTP header. To configure this on Apache： Add these lines in httpd.conf： &lt;IfModule mod_headers.c&gt; Header unset X-Powered-By &lt;/IfModule&gt; To configure this on nginx： Add this line in nginx.conf： proxy_hide_header X-Powered-By; Additionally, you must also modify the configuration for used languages(ex： PHP) and framework(ex： Tomcat) to remove the X-Powered-By header. To configure this on IIS： Change the system.webSerer section in Web.config as below： &lt;system.webServer&gt;</t>
+  </si>
+  <si>
+    <t>• 在IIS伺服器中的Web.config修改system.webServer區段：
+&lt;httpProtocol&gt;&lt;customHeaders&gt;&lt;remove name="X-Powered-By" /&gt;&lt;/customHeaders&gt;&lt;/httpProtocol&gt;&lt;/system.webServer&gt;</t>
+  </si>
+  <si>
+    <t>•Ensure that your web server, application server, load balancer, etc. is configured to set the Content-Security-Policy header, to achieve optimal browser support： 'Content-Security-Policy' for Chrome 25+, Firefox 23+ and Safari 7+, 'X-Content-Security-Policy' for Firefox 4.0+ and Internet Explorer 10+, and 'X-WebKit-CSP' for Chrome 14+ and Safari 6+</t>
+  </si>
+  <si>
+    <t>• 限制外部連入的檔案和禁用inline語法，這是預設全部阻擋的寫法，也是最嚴格最安全的方案，設定範例如下
+content-security-policy: default-src 'none';
+• 增加外部連入的白名單，限制外部連入的來源，請避免在來源url中使用「*」，設定範例如下
+content-security-policy: default-src 'none'; 
+script-src 'self' https://www.google.com;
+• 避免在CSP設定中使用「unsafe-inline」</t>
+  </si>
+  <si>
+    <t>• The best strategy to avoid mixed content blocking is to serve all the content as HTTPS instead of HTTP. A page that is available over SSL/TLS must be comprised completely of content which is transmitted over SSL/TLS. 
+• For your own domain, serve all content as HTTPS and fix your links. 
+• HTTP Strict Transport Security (HSTS) is a mechanism that enforces secure resource retrieval, even in the face of user mistakes (attempting to access your web site on port 80) and implementation errors (your developers place an insecure link into a secure page). 
+• Content Security Policy (CSP) can be used to block insecure resource retrieval from third-party web sites. 
+• Use 'protocol relative URLs' to have the user's browser automatically choose HTTP or HTTPS as appropriate, such as '&lt;script type=""text/javascript"" src=""//example.com/code.js""&gt;&lt;/script&gt;'</t>
+  </si>
+  <si>
+    <t>• 避免混合內容導致的安全疑慮，最佳的策略是將所有內容作為HTTPS而不是HTTP。 
+• 通過SSL / TLS可用的頁面必須完全包含通過SSL / TLS傳輸的內容。
+• 對於您自己的域，將所有內容用作HTTPS並修復連接。
+• HTTP嚴格傳輸安全性（HSTS）是一種強制執行安全資源檢索的機制，可以防止用戶錯誤（試圖通過端口80訪問您的網站）和實現錯誤（您的開發人員將不安全的連接放置到安全頁面中）產生的安全風險。 
+• 內容安全策略（CSP）可用於阻止從第三方網站檢索不安全的資源 。
+• 使用“protocol relative URLs”使用戶的瀏覽器根據需要自動選擇HTTP或HTTPS，例如 '&lt;script type=""""text/javascript"""" src=""""//example.com/code.js""""&gt;&lt;/script&gt;'。"</t>
+  </si>
+  <si>
+    <t>• The form should be served from a secure HTTPS page. 
+• Configure the site to use HTTPS and ensure all assets are loaded over HTTPS.</t>
+  </si>
+  <si>
+    <t>• 表單內容都應從安全的HTTPS頁面提供。 
+• 配置站點使用HTTPS，並確保所有資源都是通過HTTPS加密傳輸。</t>
+  </si>
+  <si>
+    <t>• The form target should point to a secure HTTPS page. 
+• Configure HTTPS for all HTTP POST request within the web application to ensure communication of data over encrypted channel for security.</t>
+  </si>
+  <si>
+    <t>• 表單目標應指向安全的HTTPS頁面。 
+• 為Web應用程序中的所有HTTP POST請求配置HTTPS，以確保所有資源都是通過HTTPS加密傳輸。</t>
+  </si>
+  <si>
+    <t>•Ensure that no sensitive information is leaked via redirect responses. Redirect responses should have almost no content.</t>
+  </si>
+  <si>
+    <t>• 依據報告檢查並刪除網頁回應中較敏感資訊，如系統資訊或是個人敏感資訊。</t>
+  </si>
+  <si>
+    <t>•Ensure that the SameSite attribute is set to either 'lax' or ideally 'strict' for all cookies.</t>
+  </si>
+  <si>
+    <t>• SameSite有三個數值 — Strict、Lax和None建議依據網站需求參考Strict＆Lax進行設定Strict Strict的要求最為嚴格，完全禁止第三方Cookies，只有當前網頁的 URL與請求目標一致，才會送出Cookie。 這個規則非常嚴格，適合用於銀行需要交易的網站中，保障客戶資料的安全。Lax Lax的要求則較為寬鬆，大多數情況也是不發送Cookie到第三方 ，但是Get請求除外。 這是一個平衡網路安全和使用者體驗的做法。由於Cookies可以跨網站發送，而風險較高的要求，例如POST，在Lax的設定下將會被禁止，阻止cross-site request forgery attacks 進行。</t>
+  </si>
+  <si>
+    <t>• To prevent the use of 'unsafe-inline' but still use inline scripts and styles on a page, consider converting them to safe sources via nonces or hashes. 
+• For example, using the nonce-source you may specify inline style blocks with： ""Content-Security-Policy： style-src 'nonce-2726c7f26c'"" and set the same nonce on the style element： '&lt;style nonce=""2726c7f26c""&gt; #inline-style { background： red; } &lt;/style&gt;' • Hash-source inline styles can be achieved similarly.</t>
+  </si>
+  <si>
+    <t>• 移除X-AspNet-Version標頭。 
+• 設定Apache 在 httpd.conf中加入一行：Header unset X-AspNet-Version
+• 設定nginx在 nginx.conf的location區段中加入一行：proxy_hide_header X-AspNet-Version;
+• 設定 IIS在Global.asax的 Application_PreSendRequestHeaders()裡加入一行：response.Headers.remove("X-AspNet-Version") 
+• 設定HAProxy在HAProxy前端組態設定中加入一行： http-response del-header X-AspNet-Version。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• If the application does not require cross-origin requests, check that no policy is set. 
+• The 'Access-Control-Allow-Origin' header should never be set to '*' or 'null', unless the whole content of the application is made to be public. Always ensure that it allows the most specific and restrictive set of domains. </t>
+  </si>
+  <si>
+    <t>• 如果應用程序不需要跨域請求，請關閉與跨域有關的設定，讓Web瀏覽器以更嚴格的方式實施同源限制。 
+• 如需使用跨域請求，需指定來源網域且內容不可以包含「*」與「null」，以常見的網站伺服器Apache為例，請在httpd.conf中新增一行設定「Header set Access-Control-Allow-Origin "example.com"」，其他網站伺服器請參考供應商的相關設定。</t>
+  </si>
+  <si>
+    <t>• Clearly identifies the host that is requesting authentication credentials 
+• Only allows authentication over encrypted secure channel (HTTPS) 
+• Does not allow authentication transactions to be replayed or authorization tokens to be reused 
+• Does not allow cross-domain authentication requests by default. If cross-domain authentication is desired by a parent site, a white list of domains which are allowed to be authenticated should be defined by CSP or similar site policy. 
+• Whitelist or proxy all inlined content in order to block malicious authentication requests 
+• Keep the authentication token secure and set a short expiration time</t>
+  </si>
+  <si>
+    <t>• 清楚的標識正在請求身份驗證憑據的主機。 
+• 僅允許通過加密的安全通道（HTTPS）進行身份驗證。 
+• 不允許重放身份驗證或重複使用授權token。
+• 默認情況下不允許跨域身份驗證請求，如果父站點需要跨域身份驗證，則應通過CSP或類似的站點策略定義允許進行身份驗證的域白名單。 
+• 將所有內網內容列入白名單或代理，以阻止惡意身份驗證請求。 
+• 確保身份驗證token的安全並設置較短的到期時間。</t>
+  </si>
+  <si>
+    <t>• Add 'rel=""noopener noreferrer""' to every 'a'-element that has 'target=""_blank""'. 'noopener' ensures that the linked page does not have access to 'window.opener' from the linking page. 'noreferrer' makes sure that the request referrer header is not being sent. This is supported by most recent versions of modern browsers, with Internet Explorer being an exception. • If you are using JavaScript, the following achieves the same： 'var myNewWindow = window.open(url, name, ""noopener,noreferrer"") myNewWindow.opener = null' 
+• If you show user-generated content on your page you must sanitize the input and apply ""noopener noreferrer"" to every link.</t>
+  </si>
+  <si>
+    <t>• 將html中所有用到開新視窗的跳轉連結加上noopener與noreferrer設定，以跳轉至google為例
+&lt;a href="https://www.google.com" target="_blank" rel="noreferrer noopenner"&gt;Google&lt;/a&gt;
+加上安全性設定後可以確保使用者當前瀏覽的頁面，不會因為開新視窗後被另開的這個網站給影響。
+• 將javascript中所有用到開新視窗的跳轉連結加上noopener與noreferrer設定，以跳轉至google為例
+window.open('https://www.google.com', '_blank', 'noopener,noreferrer')
+加上安全性設定後可以確保使用者當前瀏覽的頁面，不會因為開新視窗後被另開的這個網站給影響。</t>
+  </si>
+  <si>
+    <t>We detected that your website is missing anti-CSRF tokens. A cross-site request forgery(CSRF) is an attack that involves spoofing a victim's authenticated session to perform sensitive actions, such as making a payment or transfer of funds without the victim's knowledge.
+ This may result in financial loss, credential theft, and other information disclosure. CSRF attacks are effective in a number of situations including：
+• The victim has an active session on the target site. 
+• The victim is authenticated via http auth on the target site. 
+• The victim is on the same local network as the target site.
+ Cross-site request forgery is also known as CSRF, XSRF, one-click attack, session riding, confused deputy, and sea surf.</t>
+  </si>
+  <si>
+    <t>檢測到您的網站缺少CSRF Tokens，可能會導致跨站點請求偽造攻擊(CSRF)。​ 此攻擊會導致攻擊者以使用者名義發送郵件、消息，盜取帳號，甚至於購買商品，虛擬貨幣轉帳等，使個人隱私洩露以及財產受到損害。 CSRF是一種誘使使用者在他們不知道的情況發送http請求到目標網站，在許多情況下有效，包括：
+•受害者在目標站點上進行活動的session。 
+•通過目標站點上的http auth對受害者進行身份驗證。 
+•受害人與目標站點位於同源網路上。
+ CSRF可以在同源策略的範圍內進行，主要用於使用受害人權限對目標站點執行操作。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Use a vetted library or framework that provides constructs that make this weakness easier to avoid. For example, use anti-CSRF packages such as the OWASP csrfguard. 
+• Generate a unique nonce for each form and place the nonce into the form and verify the nonce upon receipt of the form. Be sure that the nonce is not predictable.
+• Identify especially dangerous operations, such as financial actions and account changes, and send a separate confirmation request to ensure that the user intended to perform that operation. 
+• Use the esapi session management control, which includes a component for CSRF.
+• Do not use the get method for any request that triggers a state change.
+• Check the http referer header to see if the request originated from an expected page. </t>
+  </si>
+  <si>
+    <t>• 為每個表單生成唯一且不可預測的隨機數，將隨機數放入表單，並在收到表單後對隨機數進行驗證。​
+• 為了要避免CSRF 攻擊，建議在每階段架構和設計時，使用經過審查的套件或框架。
+• 使用Anti-CSRF套件，例如owasp csrfguard。​
+• 使用esapi session管理套件管理session， 避免使用任何會觸發狀態更改請求的get method。
+• 檢查http引用標頭以查看該請求是否源自預期的頁面。</t>
+  </si>
+  <si>
+    <t>•Rewrite the background program using proper checking of the size  of user input integers to prevent overflows and divide by 0 errors.</t>
+  </si>
+  <si>
+    <t>• 建議在後端程序建立嚴格的輸入檢查來防止緩衝區溢位，常見方法為對欄位最大長度進行限制。
+• 後台建立完整的例外處理機制，防止攻擊者利用緩衝區中斷系統服務。</t>
+  </si>
+  <si>
+    <t>• Always specify a format string as part of program, not as an input. Most format string vulnerabilities are solved by specifying “%s” as format string and not using the data string as format string. • If possible, make the format string a constant. Extract all the variable parts as other arguments to the call. • Rewrite the background program using proper deletion of bad character strings. This will require a recompile of the background executable.</t>
+  </si>
+  <si>
+    <t>• 將格式字符串在程序中設定來限制輸入。 例如將“％s”指定為格式字符串。 
+• 如果可能，將格式字符串設置為常數，變數以其他參數儲存。 
+• 重新編譯後端可執行文件，避免不良的字符串規則。</t>
+  </si>
+  <si>
+    <t>•Rewrite the background program using proper checking of the size of user input integers to prevent overflows and divide by 0 errors.</t>
+  </si>
+  <si>
+    <t>• 建議在後端程序建立嚴格的輸入檢查來防止緩衝區溢
+位，一般狀況下建議將欄位長度限制到僅能輸入20個以下的字元。</t>
+  </si>
+  <si>
+    <t>• Perform input validation on all data using, for example, regular expressions perform other checks.
+• Use prepared statements with variable binding (aka parameterized queries) to write database queries. This forces the developer to first define all the SQL code, and then pass in each parameter to the query later, regardless of what user input is supplied.
+• Encode user input to prevent speical characters from being evaluated as commands. 
+• When a SQL query error has occured, avoid showing the error messages on the website. This allows an attacker to fingerprint your database using such information leakage. 
+• Minimize the privileges assigned to every database account in your environment to minimize the damage of a successful SQL injection attack.</t>
+  </si>
+  <si>
+    <t>• 做好輸入驗證與檢查，不論是前後端都應假設輸入都是惡意且不可信任的 。
+• 應確認每個輸入欄位是否為合理的資料類型與內容，例如年齡的欄位在文法上應只接受0-9的數字，而語意上應確認此數字介於 0-120。 
+• 任何輸入，尤其是難以定義文法的自由格式，都應經由編碼轉義為純字符串來處理，防止此內容被視為程式碼執行。許多程式框架都有提供內建編碼函式庫，可多加利用。 
+• 絕對不要將使用者輸入放入 &lt;script&gt;、註解、屬性名稱、標籤名稱、內聯事件監聽器等，因為這些位置都能將字符串作為程式碼運行 。
+• 對cookie設定HttpOnly的屬性，確保程式碼沒有存取權 
+• 設定X-XSS-Protection：0的標頭 
+• 設定內容安全策略（CSP）的標頭，可明確定義允許瀏覽器在該頁面上加載的內容來源，涵蓋的類型包括JavaScript，CSS，HTML框架，字體，圖像和可嵌入對象，例如Java applet，ActiveX，影音文件"</t>
+  </si>
+  <si>
+    <t>• Perform input validation on all data using, for example, regular expressions or strconv() to transform the data and perform other checks 
+• Use prepared statements with variable binding (aka parameterized queries) to write database queries. This forces the developer to first define all the SQL code, and then pass in each parameter to the query later, regardless of what user input is supplied. For example, use PreparedStatement() in Java, SqlCommand() or OleCommand() in .NET, and sqlite3_prepare() in SQLite. 
+• Encode user input to prevent speical characters from being evaluated as commands. 
+• When a SQL query error has occured, avoid showing the error messages on the website. This allows an attacker to fingerprint your database using such information leakage. 
+• Minimize the privileges assigned to every database account in your environment to minimize the damage of a successful SQL injection attack.</t>
+  </si>
+  <si>
+    <t>• Disable the 'TRACE' method on the proxy servers, as well as the origin web/application server. 
+• Disable the 'OPTIONS' method on the proxy servers, as well as the origin web/application server, if it is not required for other purposes, such as 'CORS' (Cross Origin Resource Sharing). 
+• Configure the web and application servers with custom error pages, to prevent 'fingerprintable' product-specific error pages being leaked to the user in the event of HTTP errors, such as 'TRACK' requests for non-existent pages. 
+• Configure all proxies, application servers, and web servers to prevent disclosure of the technology and version information in the 'Server' and 'X-Powered-By' HTTP response headers.</t>
+  </si>
+  <si>
+    <t>• 建議在代理伺服器以及原始Web /應用程序伺服器上禁用TRACE method。​ 
+• 建議在代理伺服器以及原始Web /應用程序伺服器上禁用OPTIONS method，防止攻擊者藉由OPTIONS的查詢來檢查網站是否支援TRACE。​ 
+• 如果已禁用TRACE method，建議在網站中使用自定義錯誤頁面，防止攻擊者往不存在的頁面發送TRACE請求時，預設的錯誤頁面洩露過多資訊。</t>
+  </si>
+  <si>
+    <t>•檢查輸入的資料是否為期望的資料格式，可使用正規表達式或其他方法進行過濾，防止預期外的輸入。 
+•使用資料庫或第三方套件提供的參數化查詢接口，避免直接拼接 SQL 查詢語法。
+•對使用者的輸入進行轉義或是編碼處理，避免含有特殊字符的字串被當作指令解析。
+•發生 SQL 查詢語法錯誤時，避免直接將錯誤訊息或是 SQL 查詢結果顯示於頁面上，防止駭客透過此洩露資訊進行攻擊。 
+•限制用戶對資料庫的存取權限，僅給予最低能滿足需求的權限，進而減少此攻擊對資料庫的危害。</t>
+  </si>
+  <si>
+    <t>• Hide or remove Trace.axd in production stages. 
+• Disable the Trace Viewer unless it is actually required in development. Ensure access to it requires authentication and authorization. 
+• To disable ASP.NET tracing, apply the following changes to your web.config file： &lt;System.Web&gt; &lt;trace enabled=""false"" /&gt; &lt;/System.Web&gt;</t>
+  </si>
+  <si>
+    <t>• 應將此文件隱藏或從生產階段中刪除，因為它可能洩漏大量信息。 
+• 請考慮研發過程中是否實際需要Trace Viewer，如果不需要，則將其禁用。 
+• 若不禁用，請確保任何人進行存取時需要身份驗證和授權。 要禁用ASP.NET跟踪，請將以下更改應用於web.config文件： &lt;System.Web&gt; &lt;trace enabled=""false"" /&gt; &lt;/System.Web&gt;。</t>
+  </si>
+  <si>
+    <t>• 確認網站上.htaccess 檔案的存取權限，確保使用者無法下載.htaccess 。
+• 設定完成後以報告中路徑測試，再次確認使用者無法存取檔案</t>
+  </si>
+  <si>
+    <t>• 確認掃描報告中列出的文件，確認此文件有公開的必要，否則則移除此類型文件，確保資料沒有洩漏的風險。</t>
+  </si>
+  <si>
+    <t>• 盡量不使用使用者提供的XSLT檔案匯入 。
+• 網站中的輸入欄位針對XSLT語法進行過濾 。</t>
+  </si>
+  <si>
+    <t>• 做好輸入驗證與檢查，不論是前後端都應假設輸入都是惡意且不可信任的 
+• 檢查文法與語意，應確認每個輸入欄位是否為合理的資料類型與內容，例如年齡的欄位在文法上應只接受0-9的數字，而語意上應確認此數字介於 0-120。 
+• 難以定義文法的自由格式，都應經由編碼轉義為純字符串來處理，防止此內容被視為程式碼執行。許多程式框架都有提供內建編碼函式庫，可多加利用。</t>
+  </si>
+  <si>
+    <t>• Review the source code of this page. 
+• Implement custom error pages. Consider implementing a mechanism to provide a unique error reference/identifier to the client (browser) while logging the details on the server side and not exposing them to the user.</t>
+  </si>
+  <si>
+    <t>• 查看此頁面的原始碼，並自定義錯誤頁面。 
+• 當發生錯誤時將資料（錯誤參考碼/識別碼）記錄在伺服器端，而不向用戶公開。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• 將顯示的錯誤訊息隱藏確保攻擊者無法查看錯誤訊息中的敏感資訊。
+• 將顯示錯誤訊息的應用程序或框架版本更新至最新或安全的穩定版本。 </t>
+  </si>
+  <si>
+    <t>• 檢查報告列表中為實際執行Cookie驗證功能的區域。</t>
+  </si>
+  <si>
+    <t>• 將流量代理到已知上游Server，通過IP地址或DNS名稱來標識Server進行過濾。 
+• 在NGINX配置中或使用Web應用程序防火牆（WAF），將所有帶有異常標頭值的請求丟棄。</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2376,13 +2056,6 @@
       <name val="MS Gothic"/>
       <family val="3"/>
       <charset val="128"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Microsoft YaHei"/>
-      <family val="2"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -3177,25 +2850,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K61" sqref="K61"/>
+    <sheetView tabSelected="1" topLeftCell="F77" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L83" sqref="L83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="8.90625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="55.6328125" style="1" customWidth="1"/>
-    <col min="4" max="6" width="10.6328125" style="1" customWidth="1"/>
-    <col min="7" max="12" width="55.6328125" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="2" width="8.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="55.625" style="1" customWidth="1"/>
+    <col min="4" max="6" width="10.625" style="1" customWidth="1"/>
+    <col min="7" max="12" width="55.625" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>297</v>
+        <v>250</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -3204,10 +2877,10 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>285</v>
+        <v>242</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>3</v>
@@ -3228,12 +2901,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>299</v>
+        <v>252</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>9</v>
@@ -3242,12 +2915,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>298</v>
+        <v>251</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -3256,12 +2929,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>298</v>
+        <v>251</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>11</v>
@@ -3270,12 +2943,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="408">
+    <row r="5" spans="1:12" ht="363" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>298</v>
+        <v>251</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
@@ -3284,36 +2957,36 @@
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>129</v>
+        <v>337</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="409.5">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="396" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>300</v>
+        <v>253</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>13</v>
@@ -3322,33 +2995,33 @@
         <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>155</v>
+        <v>339</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>41</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>301</v>
+        <v>254</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>14</v>
@@ -3357,12 +3030,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="85">
+    <row r="8" spans="1:12" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>42</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>301</v>
+        <v>254</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>15</v>
@@ -3371,36 +3044,36 @@
         <v>1</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>241</v>
+        <v>204</v>
       </c>
       <c r="G8" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="L8" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="187">
+    </row>
+    <row r="9" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>301</v>
+        <v>254</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>16</v>
@@ -3409,68 +3082,68 @@
         <v>1</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>134</v>
+        <v>343</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="68">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>10003</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>303</v>
+        <v>256</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="D10" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>388</v>
+        <v>317</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>252</v>
+        <v>214</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="102">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="99" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10010</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>301</v>
+        <v>254</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>17</v>
@@ -3479,36 +3152,36 @@
         <v>1</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>241</v>
+        <v>204</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>241</v>
+        <v>204</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>360</v>
+        <v>294</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>362</v>
+        <v>296</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>364</v>
+        <v>298</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>365</v>
+        <v>299</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>366</v>
+        <v>300</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="85">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="66" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10011</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>301</v>
+        <v>254</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>18</v>
@@ -3517,36 +3190,36 @@
         <v>1</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>241</v>
+        <v>204</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>241</v>
+        <v>204</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>361</v>
+        <v>295</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>363</v>
+        <v>297</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>374</v>
+        <v>306</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>375</v>
+        <v>307</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>376</v>
+        <v>308</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="102">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="99" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>10015</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>302</v>
+        <v>255</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>19</v>
@@ -3555,36 +3228,36 @@
         <v>1</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>241</v>
+        <v>204</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>241</v>
+        <v>204</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>369</v>
+        <v>302</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>368</v>
+        <v>301</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>370</v>
+        <v>303</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>371</v>
+        <v>304</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>372</v>
+        <v>305</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="102">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="99" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>10017</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>304</v>
+        <v>257</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>20</v>
@@ -3593,36 +3266,36 @@
         <v>1</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>241</v>
+        <v>204</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>264</v>
+        <v>223</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>265</v>
+        <v>224</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>266</v>
+        <v>225</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>267</v>
+        <v>226</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>268</v>
+        <v>227</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>10019</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>304</v>
+        <v>257</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>21</v>
@@ -3631,12 +3304,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="289">
+    <row r="16" spans="1:12" ht="264" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>10020</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>302</v>
+        <v>255</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>22</v>
@@ -3645,74 +3318,74 @@
         <v>1</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>241</v>
+        <v>204</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>241</v>
+        <v>204</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>186</v>
+        <v>350</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="136">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>10021</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>301</v>
+        <v>254</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>258</v>
+        <v>218</v>
       </c>
       <c r="D17" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>241</v>
+        <v>204</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>241</v>
+        <v>204</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>259</v>
+        <v>219</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>272</v>
+        <v>230</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>260</v>
+        <v>220</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>262</v>
+        <v>222</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="119">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>10023</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>298</v>
+        <v>251</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>23</v>
@@ -3721,36 +3394,36 @@
         <v>1</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>241</v>
+        <v>204</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>241</v>
+        <v>204</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>378</v>
+        <v>309</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>379</v>
+        <v>310</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>380</v>
+        <v>311</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>381</v>
+        <v>312</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>382</v>
+        <v>353</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>10024</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>298</v>
+        <v>251</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>24</v>
@@ -3759,12 +3432,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>10025</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>298</v>
+        <v>251</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>25</v>
@@ -3773,12 +3446,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>10026</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>300</v>
+        <v>253</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>26</v>
@@ -3787,12 +3460,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>10027</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>298</v>
+        <v>251</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>27</v>
@@ -3801,12 +3474,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="170">
+    <row r="23" spans="1:12" ht="148.5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>10028</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>298</v>
+        <v>251</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>28</v>
@@ -3815,36 +3488,36 @@
         <v>1</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>10029</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>300</v>
+        <v>253</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>29</v>
@@ -3853,12 +3526,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>10030</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>300</v>
+        <v>253</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>30</v>
@@ -3867,12 +3540,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>10031</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>300</v>
+        <v>253</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>31</v>
@@ -3881,82 +3554,82 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="153">
+    <row r="27" spans="1:12" ht="132" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>10032</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>302</v>
+        <v>255</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D27" s="1" t="b">
         <v>0</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>286</v>
+        <v>243</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>288</v>
+        <v>245</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>287</v>
+        <v>244</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>289</v>
+        <v>356</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="136">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>10033</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>298</v>
+        <v>251</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>292</v>
+        <v>247</v>
       </c>
       <c r="D28" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>292</v>
+        <v>247</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>291</v>
+        <v>246</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>293</v>
+        <v>248</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>294</v>
+        <v>249</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>295</v>
+        <v>358</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="238">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="214.5" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>10034</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>302</v>
+        <v>255</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>32</v>
@@ -3965,10 +3638,10 @@
         <v>1</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>114</v>
@@ -3980,21 +3653,21 @@
         <v>115</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>411</v>
+        <v>334</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>117</v>
+        <v>360</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="102">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>10035</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>305</v>
+        <v>258</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>33</v>
@@ -4003,30 +3676,30 @@
         <v>1</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>355</v>
+        <v>291</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>354</v>
+        <v>290</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>356</v>
+        <v>292</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>357</v>
+        <v>293</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>10036</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>298</v>
+        <v>251</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>34</v>
@@ -4035,12 +3708,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="153">
+    <row r="32" spans="1:12" ht="148.5" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>10037</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>298</v>
+        <v>251</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>35</v>
@@ -4049,74 +3722,74 @@
         <v>1</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>241</v>
+        <v>204</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>241</v>
+        <v>204</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>273</v>
+        <v>231</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>274</v>
+        <v>232</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>275</v>
+        <v>233</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>276</v>
+        <v>234</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>328</v>
+        <v>364</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="170">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="148.5" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>10038</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>301</v>
+        <v>254</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>248</v>
+        <v>210</v>
       </c>
       <c r="D33" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>241</v>
+        <v>204</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>249</v>
+        <v>211</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>271</v>
+        <v>229</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>250</v>
+        <v>212</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>270</v>
+        <v>228</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>329</v>
+        <v>366</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="68">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="66" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>10039</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>298</v>
+        <v>251</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>36</v>
@@ -4125,36 +3798,36 @@
         <v>1</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>241</v>
+        <v>204</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>241</v>
+        <v>204</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>389</v>
+        <v>318</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>390</v>
+        <v>319</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>391</v>
+        <v>320</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>392</v>
+        <v>321</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>393</v>
+        <v>322</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="289">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="247.5" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>10040</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>302</v>
+        <v>255</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>37</v>
@@ -4163,36 +3836,36 @@
         <v>1</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>241</v>
+        <v>204</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>385</v>
+        <v>314</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>384</v>
+        <v>313</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>386</v>
+        <v>315</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>387</v>
+        <v>316</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>396</v>
+        <v>368</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="102">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="99" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>10041</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>305</v>
+        <v>258</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>38</v>
@@ -4201,36 +3874,36 @@
         <v>1</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>241</v>
+        <v>204</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>216</v>
+        <v>185</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>217</v>
+        <v>186</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>218</v>
+        <v>187</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>219</v>
+        <v>188</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>220</v>
+        <v>370</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" ht="153">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="148.5" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>10042</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>305</v>
+        <v>258</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>39</v>
@@ -4239,36 +3912,36 @@
         <v>1</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>309</v>
+        <v>262</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>310</v>
+        <v>263</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>311</v>
+        <v>264</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>312</v>
+        <v>265</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>313</v>
+        <v>372</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>10043</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>300</v>
+        <v>253</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>40</v>
@@ -4277,12 +3950,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="68">
+    <row r="39" spans="1:12" ht="66" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>10044</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>298</v>
+        <v>251</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>41</v>
@@ -4291,36 +3964,36 @@
         <v>1</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>241</v>
+        <v>204</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>241</v>
+        <v>204</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>398</v>
+        <v>324</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>399</v>
+        <v>325</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>400</v>
+        <v>326</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>401</v>
+        <v>327</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>10045</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>301</v>
+        <v>254</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>42</v>
@@ -4329,12 +4002,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>10047</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>302</v>
+        <v>255</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>43</v>
@@ -4343,21 +4016,21 @@
         <v>1</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>241</v>
+        <v>204</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>241</v>
+        <v>204</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>10048</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>300</v>
+        <v>253</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>44</v>
@@ -4366,12 +4039,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>10050</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>307</v>
+        <v>260</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>45</v>
@@ -4380,12 +4053,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>10051</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>300</v>
+        <v>253</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>46</v>
@@ -4394,12 +4067,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>10052</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>298</v>
+        <v>251</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>47</v>
@@ -4408,50 +4081,50 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="170">
+    <row r="46" spans="1:12" ht="149.25" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>10054</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>298</v>
+        <v>251</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>251</v>
+        <v>213</v>
       </c>
       <c r="D46" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E46" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="H46" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="F46" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>284</v>
-      </c>
       <c r="I46" s="2" t="s">
-        <v>255</v>
+        <v>216</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>256</v>
+        <v>217</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>327</v>
+        <v>376</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" ht="136">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="132" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>10055</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>301</v>
+        <v>254</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>48</v>
@@ -4460,36 +4133,36 @@
         <v>1</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>241</v>
+        <v>204</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>241</v>
+        <v>204</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>202</v>
+        <v>176</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>201</v>
+        <v>175</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>204</v>
+        <v>178</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>203</v>
+        <v>177</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>206</v>
+        <v>378</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>10056</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>298</v>
+        <v>251</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>49</v>
@@ -4498,12 +4171,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>10057</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>298</v>
+        <v>251</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>50</v>
@@ -4512,12 +4185,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>10058</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>301</v>
+        <v>254</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>51</v>
@@ -4526,50 +4199,50 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="170">
+    <row r="51" spans="1:12" ht="148.5" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>10061</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>298</v>
+        <v>251</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>278</v>
+        <v>235</v>
       </c>
       <c r="D51" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>241</v>
+        <v>204</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>241</v>
+        <v>204</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>279</v>
+        <v>236</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>280</v>
+        <v>237</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>281</v>
+        <v>238</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>282</v>
+        <v>239</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>283</v>
+        <v>240</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>10062</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>298</v>
+        <v>251</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>52</v>
@@ -4581,12 +4254,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>10095</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>302</v>
+        <v>255</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>54</v>
@@ -4595,12 +4268,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>10096</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>298</v>
+        <v>251</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>55</v>
@@ -4609,12 +4282,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>10097</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>298</v>
+        <v>251</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>56</v>
@@ -4623,53 +4296,53 @@
         <v>0</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" ht="204">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="198" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>10098</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>298</v>
+        <v>251</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="D56" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>241</v>
+        <v>204</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>241</v>
+        <v>204</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>196</v>
+        <v>380</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>10104</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>307</v>
+        <v>260</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>58</v>
@@ -4678,12 +4351,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="238">
+    <row r="58" spans="1:12" ht="231" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>10105</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>306</v>
+        <v>259</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>59</v>
@@ -4692,36 +4365,36 @@
         <v>1</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>315</v>
+        <v>266</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>316</v>
+        <v>267</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>317</v>
+        <v>268</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>318</v>
+        <v>269</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>319</v>
+        <v>382</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>10106</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>302</v>
+        <v>255</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>60</v>
@@ -4730,12 +4403,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:12">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>10107</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>300</v>
+        <v>253</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>61</v>
@@ -4744,12 +4417,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="204">
+    <row r="61" spans="1:12" ht="198" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>10108</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>302</v>
+        <v>255</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>62</v>
@@ -4758,33 +4431,33 @@
         <v>1</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>412</v>
+        <v>335</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>189</v>
+        <v>384</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>10109</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>307</v>
+        <v>260</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>63</v>
@@ -4793,50 +4466,50 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="255">
+    <row r="63" spans="1:12" ht="247.5" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>10202</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>298</v>
+        <v>251</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>242</v>
+        <v>205</v>
       </c>
       <c r="D63" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>241</v>
+        <v>204</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>240</v>
+        <v>203</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>122</v>
+        <v>386</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>123</v>
+        <v>387</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>124</v>
+        <v>388</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" ht="255">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="247.5" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>20012</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>298</v>
+        <v>251</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>64</v>
@@ -4845,36 +4518,36 @@
         <v>1</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>122</v>
+        <v>386</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>123</v>
+        <v>387</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>124</v>
+        <v>388</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>20014</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>300</v>
+        <v>253</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>65</v>
@@ -4883,12 +4556,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:12">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>20015</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>302</v>
+        <v>255</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>66</v>
@@ -4897,12 +4570,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:12">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>20016</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>298</v>
+        <v>251</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>57</v>
@@ -4911,12 +4584,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:12">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>20017</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>300</v>
+        <v>253</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>67</v>
@@ -4925,12 +4598,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:12">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>20018</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>300</v>
+        <v>253</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>68</v>
@@ -4939,12 +4612,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:12">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>20019</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>298</v>
+        <v>251</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>69</v>
@@ -4953,12 +4626,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="170">
+    <row r="71" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>30001</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>307</v>
+        <v>260</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>70</v>
@@ -4967,36 +4640,36 @@
         <v>1</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>243</v>
+        <v>206</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>244</v>
+        <v>207</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>245</v>
+        <v>208</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>246</v>
+        <v>209</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>326</v>
+        <v>390</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" ht="187">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>30002</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>307</v>
+        <v>260</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>71</v>
@@ -5005,36 +4678,36 @@
         <v>1</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>241</v>
+        <v>204</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>71</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>330</v>
+        <v>273</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>331</v>
+        <v>274</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>332</v>
+        <v>275</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>333</v>
+        <v>392</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" ht="170">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>30003</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>307</v>
+        <v>260</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>72</v>
@@ -5043,36 +4716,36 @@
         <v>1</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>321</v>
+        <v>270</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>322</v>
+        <v>271</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>323</v>
+        <v>272</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>246</v>
+        <v>209</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>325</v>
+        <v>394</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>40003</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>300</v>
+        <v>253</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>73</v>
@@ -5081,12 +4754,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:12">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>40008</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>302</v>
+        <v>255</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>74</v>
@@ -5095,12 +4768,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:12">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>40009</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>300</v>
+        <v>253</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>75</v>
@@ -5109,12 +4782,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="306">
+    <row r="77" spans="1:12" ht="280.5" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>40012</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>300</v>
+        <v>253</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>76</v>
@@ -5123,36 +4796,36 @@
         <v>1</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>163</v>
+        <v>396</v>
       </c>
       <c r="L77" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>40013</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>306</v>
+        <v>259</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>77</v>
@@ -5161,12 +4834,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:12">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>40014</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>300</v>
+        <v>253</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>78</v>
@@ -5175,12 +4848,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:12">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>40016</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>300</v>
+        <v>253</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>79</v>
@@ -5189,12 +4862,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:12">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>40017</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>300</v>
+        <v>253</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>80</v>
@@ -5203,12 +4876,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="255">
+    <row r="82" spans="1:12" ht="231" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>40018</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>300</v>
+        <v>253</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>81</v>
@@ -5217,36 +4890,36 @@
         <v>1</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="K82" s="2" t="s">
-        <v>163</v>
+        <v>396</v>
       </c>
       <c r="L82" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" ht="306">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" ht="280.5" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>40019</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>300</v>
+        <v>253</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>82</v>
@@ -5255,36 +4928,36 @@
         <v>1</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="K83" s="2" t="s">
-        <v>144</v>
+        <v>398</v>
       </c>
       <c r="L83" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" ht="255">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" ht="231" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>40020</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>300</v>
+        <v>253</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>83</v>
@@ -5293,33 +4966,33 @@
         <v>1</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="K84" s="2" t="s">
-        <v>163</v>
+        <v>396</v>
       </c>
       <c r="L84" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" ht="306">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" ht="280.5" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>40021</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>300</v>
+        <v>253</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>84</v>
@@ -5328,36 +5001,36 @@
         <v>1</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="K85" s="2" t="s">
-        <v>144</v>
+        <v>398</v>
       </c>
       <c r="L85" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" ht="306">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" ht="280.5" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>40022</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>300</v>
+        <v>253</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>85</v>
@@ -5366,36 +5039,36 @@
         <v>1</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="K86" s="2" t="s">
-        <v>144</v>
+        <v>398</v>
       </c>
       <c r="L86" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>40023</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>298</v>
+        <v>251</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>86</v>
@@ -5404,12 +5077,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:12" ht="255">
+    <row r="88" spans="1:12" ht="231" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>40024</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>300</v>
+        <v>253</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>87</v>
@@ -5418,74 +5091,74 @@
         <v>1</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="K88" s="2" t="s">
-        <v>163</v>
+        <v>396</v>
       </c>
       <c r="L88" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" ht="255">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" ht="231" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>40025</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>298</v>
+        <v>251</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>208</v>
+        <v>179</v>
       </c>
       <c r="D89" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>209</v>
+        <v>180</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>210</v>
+        <v>181</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>211</v>
+        <v>182</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>213</v>
+        <v>184</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>214</v>
+        <v>399</v>
       </c>
       <c r="L89" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>40026</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>300</v>
+        <v>253</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>88</v>
@@ -5494,12 +5167,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:12" ht="255">
+    <row r="91" spans="1:12" ht="231" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>40027</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>300</v>
+        <v>253</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>89</v>
@@ -5508,36 +5181,36 @@
         <v>1</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="K91" s="2" t="s">
-        <v>163</v>
+        <v>396</v>
       </c>
       <c r="L91" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" ht="153">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" ht="148.5" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>40028</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>300</v>
+        <v>253</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>90</v>
@@ -5546,36 +5219,36 @@
         <v>1</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>308</v>
+        <v>261</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>241</v>
+        <v>204</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>337</v>
+        <v>278</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>336</v>
+        <v>277</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>338</v>
+        <v>279</v>
       </c>
       <c r="J92" s="2" t="s">
-        <v>339</v>
+        <v>280</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>340</v>
+        <v>402</v>
       </c>
       <c r="L92" s="2" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>40029</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>298</v>
+        <v>251</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>91</v>
@@ -5584,50 +5257,50 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:12" ht="85">
+    <row r="94" spans="1:12" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>40032</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>300</v>
+        <v>253</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>229</v>
+        <v>194</v>
       </c>
       <c r="D94" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>241</v>
+        <v>204</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>235</v>
+        <v>200</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>233</v>
+        <v>198</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>234</v>
+        <v>199</v>
       </c>
       <c r="K94" s="1" t="s">
-        <v>237</v>
+        <v>202</v>
       </c>
       <c r="L94" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" ht="68">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" ht="66" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>40034</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>298</v>
+        <v>251</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>92</v>
@@ -5636,36 +5309,36 @@
         <v>1</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>241</v>
+        <v>204</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>228</v>
+        <v>193</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>335</v>
+        <v>276</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>231</v>
+        <v>196</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>232</v>
+        <v>197</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>236</v>
+        <v>201</v>
       </c>
       <c r="L95" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>40035</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>298</v>
+        <v>251</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>93</v>
@@ -5674,12 +5347,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:12">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>50000</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>307</v>
+        <v>260</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>94</v>
@@ -5688,12 +5361,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:12">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>50001</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>307</v>
+        <v>260</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>95</v>
@@ -5702,12 +5375,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:12">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>50003</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>307</v>
+        <v>260</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>96</v>
@@ -5716,12 +5389,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:12">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>90001</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>302</v>
+        <v>255</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>97</v>
@@ -5730,12 +5403,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:12">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>90011</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>307</v>
+        <v>260</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>98</v>
@@ -5744,12 +5417,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="153">
+    <row r="102" spans="1:12" ht="132" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>90017</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>300</v>
+        <v>253</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>99</v>
@@ -5758,36 +5431,36 @@
         <v>1</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>348</v>
+        <v>285</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>349</v>
+        <v>286</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>350</v>
+        <v>287</v>
       </c>
       <c r="J102" s="2" t="s">
-        <v>351</v>
+        <v>288</v>
       </c>
       <c r="K102" s="1" t="s">
-        <v>352</v>
+        <v>289</v>
       </c>
       <c r="L102" s="2" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>90019</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>300</v>
+        <v>253</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>100</v>
@@ -5796,12 +5469,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:12" ht="170">
+    <row r="104" spans="1:12" ht="148.5" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>90020</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>300</v>
+        <v>253</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>101</v>
@@ -5810,36 +5483,36 @@
         <v>1</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>212</v>
+        <v>183</v>
       </c>
       <c r="J104" s="2" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="K104" s="2" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="L104" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>90021</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>300</v>
+        <v>253</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>102</v>
@@ -5848,12 +5521,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:12" ht="136">
+    <row r="106" spans="1:12" ht="132" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>90022</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>298</v>
+        <v>251</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>103</v>
@@ -5862,36 +5535,36 @@
         <v>1</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>222</v>
+        <v>189</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>223</v>
+        <v>190</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>224</v>
+        <v>191</v>
       </c>
       <c r="J106" s="2" t="s">
-        <v>225</v>
+        <v>192</v>
       </c>
       <c r="K106" s="2" t="s">
-        <v>226</v>
+        <v>408</v>
       </c>
       <c r="L106" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>90023</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>301</v>
+        <v>254</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>104</v>
@@ -5900,12 +5573,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:12" ht="153">
+    <row r="108" spans="1:12" ht="148.5" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>90024</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>302</v>
+        <v>255</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>105</v>
@@ -5914,36 +5587,36 @@
         <v>1</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>241</v>
+        <v>204</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="I108" s="2" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="J108" s="2" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="K108" s="2" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="L108" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>90025</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>300</v>
+        <v>253</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>106</v>
@@ -5952,12 +5625,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:12">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>90026</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>307</v>
+        <v>260</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>107</v>
@@ -5966,12 +5639,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:12" ht="85">
+    <row r="111" spans="1:12" ht="66" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>90027</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>298</v>
+        <v>251</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>108</v>
@@ -5980,36 +5653,36 @@
         <v>1</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>241</v>
+        <v>204</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>241</v>
+        <v>204</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>404</v>
+        <v>328</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>405</v>
+        <v>329</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>406</v>
+        <v>330</v>
       </c>
       <c r="J111" s="2" t="s">
-        <v>407</v>
+        <v>331</v>
       </c>
       <c r="K111" s="2" t="s">
-        <v>409</v>
+        <v>332</v>
       </c>
       <c r="L111" s="1" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>90028</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>298</v>
+        <v>251</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>109</v>
@@ -6018,12 +5691,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:12">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>90029</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>307</v>
+        <v>260</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>110</v>
@@ -6032,12 +5705,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:12">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>90030</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>301</v>
+        <v>254</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>111</v>
@@ -6046,12 +5719,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:12">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>90033</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>304</v>
+        <v>257</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>112</v>
@@ -6060,12 +5733,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:12" ht="119">
+    <row r="116" spans="1:12" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>90034</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>307</v>
+        <v>260</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>113</v>
@@ -6074,28 +5747,28 @@
         <v>1</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="I116" s="2" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="J116" s="2" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="K116" s="2" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="L116" s="2" t="s">
-        <v>173</v>
+        <v>412</v>
       </c>
     </row>
   </sheetData>

--- a/apps/report_zap/zap_report.xlsx
+++ b/apps/report_zap/zap_report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProject\tool\python_tool\apps\report_zap\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nick Wu\PycharmProjects\github\python_tool\apps\report_zap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F545AAE-FBF8-402A-A5D7-19C347DE0A15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD04B675-53F7-466F-8EC5-0D0F10CA4918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="zap_report" sheetId="1" r:id="rId1"/>
@@ -407,11 +407,6 @@
   </si>
   <si>
     <t>路徑遍尋</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>We detected that your website is vulnerable to dirctory traversal.
- A directory traversal attack allows an attacker access to arbritrary restricted files directories and sensitive commands by manipulating a url. Any device that exposes an http-based interface is potentially vulnerable to path traversal. This vulnerability allows attackers to read sensitive information within the websites restricted files, and may lead to data exposure, credential leakage, and accont compromise. Attackers may utilize special-characters sequences, for example the ../ special-character sequence, to alter the resource location requested in the url. Advanced information： Although most popular web servers will prevent this technique with security filters, attackers may bypass them using alternate encodings, including unicode-encoded slash characters, url encoded characters, and double url encodings. Even if the web server properly restricts path traversal attempts in the url path, a web application may still be vulnerable due to improper handling of user-supplied input, such as substituting the original url parameter value with the file name of one of the web application's dynamic scripts. Consequently the results can reveal source code because the file is interpreted as text instead of an executable script. These techniques often employ additional special characters such as the dot (.) to reveal the listing of the current working directory or %00 null characters in order to bypass rudimentary file extension checks.</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -556,10 +551,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Open redirects are one of the OWASP 2010 Top Ten vulnerabilities. This check looks at user-supplied input in query string parameters and POST data to identify where open redirects might be possible. Open redirects occur when an application allows user-supplied input (e.g. http：//nottrusted.com) to control an offsite redirect. This is generally a pretty accurate way to find where 301 or 302 redirects could be exploited by spammers or phishing attacks. For example an attacker could supply a user with the following link： http：//example.com/example.php?url=http：//malicious.example.com.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>To avoid the open redirect vulnerability, parameters of the application  script/program must be validated before sending 302 HTTP code (redirect) to the client browser. Implement safe redirect functionality that only redirects to relative URI's, or a list of trusted domains</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -569,11 +560,6 @@
   </si>
   <si>
     <t>文件引用（遠端文件）</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Remote File Include (RFI) is an attack technique used to exploit “dynamic file include” mechanisms in web applications. When web applications take user input (URL, parameter value, etc.) and pass them into file include
- commands, the web application might be tricked into including remote files with malicious code. Almost all web application frameworks support file inclusion. File inclusion is mainly used for packaging common code into separate files that are later referenced by main application modules. When a web application references an include file, the code in this file may be executed implicitly or explicitly by calling specific procedures. If the choice of module to load is based on elements from the HTTP request, the web application might be vulnerable to RFI. An attacker can use RFI for： * Running malicious code on the server： any code in the included malicious files will be run by the server. If the file include is not executed using some wrapper, code in include files is executed in the context of the server user. This could lead to a complete system compromise. * Running malicious code on clients： the attacker's malicious code can manipulate the content of the response sent to the client. The attacker can embed malicious code in the response that will be run by the client (for example, JavaScript to steal the client session cookies). PHP is particularly vulnerable to RFI attacks due to the extensive use of “file includes” in PHP programming and due to default server configurations that increase susceptibility to an RFI attack.</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -729,23 +715,10 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Misconfigured Headers： CORS</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>標頭配置錯誤（CORS）</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>We detected that your website has misconfigured CORS headers.
- Due to a misconfigured 'Access-Control-Allow-Origin： *' header on the web server and third party resource loading in the webpage, the victim's browser may load malicious resources and execute harmful scripts. Impact includes credential theft, data leakage, and phishing attempts. Cross-Origin Resource Sharing (CORS) is an HTTP-header based mechanism that allows a server to indicate any other origins (domain, protocol, or port) than its own from which a browser should permit loading of resources. This helps restrict the loaded data to trusted sources and prevent the browser from loading malicious external content. Thus, setting a wildcard directive ('*') nulls the protection from CORS settings.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>檢測到您的網站可能有會產生安全疑慮的CORS配置錯誤。常見於設置了「 Access-Control-Allow-Origin: *」，同時網頁引用的第三方網頁中包含XSS或CSRF程式碼，則會導致自身的網頁受到第三方網頁中的惡意程式攻擊。 跨域資源共享（CORS）是一種基於HTTP標頭的機制，它允許伺服器指示瀏覽器應允許加載的資源外的其他任何來源（域，協議或端口），若Web服務器上的“ Access-Control-Allow-Origin”標頭配置錯誤，可能會加載異常或惡意的Web瀏覽器數據。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>Cross-Domain Misconfiguration</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -755,10 +728,6 @@
   </si>
   <si>
     <t>標頭配置錯誤（CSP）</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Misconfigured Headers： CSP</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -772,10 +741,6 @@
   </si>
   <si>
     <t>Proxy Disclosure</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Insecure HTTP Method： TRACE</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -924,10 +889,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Misconfigured Headers： Missing CSP</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>Content Security Policy (CSP) is an added layer of security that helps to detect and mitigate certain types of attacks, including Cross Site Scripting (XSS) and data injection attacks. These attacks are used for everything from data theft to site defacement or distribution of malware. CSP provides a set of standard HTTP headers that allow website owners to declare approved sources of content that browsers should be allowed to load on that page — covered types are JavaScript, CSS, HTML frames, fonts, images and embeddable objects such as Java applets, ActiveX, audio and video files.</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -941,10 +902,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Misconfigured Cookie： Missing SameSite Attribute</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>A cookie has been set without the SameSite attribute, which means  that the cookie can be sent as a result of a ‘cross-site’ request. The SameSite attribute is an effective counter measure to cross-site request forgery, cross-site script inclusion, and timing attacks.</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -954,10 +911,6 @@
   </si>
   <si>
     <t>X-Content-Type-Options Header Missing</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Misconfigured Headers： Missing X-Content-Type-Options</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -974,10 +927,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Cross-Domain File Inclusion： Javascript</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>跨域引用檔案（Javascript）</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -1007,10 +956,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Header Leakage： X-Powered-By</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>標頭資訊洩露（X-Powered-By）</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -1027,10 +972,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Header Leakage： X-AspNet-Version</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>標頭資訊洩露（X-AspNet-Version）</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -1040,11 +981,6 @@
   </si>
   <si>
     <t>檢測到您的網站在標頭中洩漏X-AspNet-Version信息，該信息可能會洩露後端伺服器資訊以及ASP.NET版本，造成安全風險。攻擊者可比照各種軟韌體版本資訊找出過期或未修補的系統，進而滲透利用。即使當前版本安全，未來若此版本有新漏洞釋出，您的網站可能因洩漏此資訊而在短時間內遭到攻擊。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Remove the X-AspNet-Version HTTP header. To configure this 
-on Apache： Add this line in httpd.conf： Header unset X-AspNet-Version To configure this on nginx： Add this line in the location section in nginx.conf： proxy_hide_header X-AspNet-Version; To configure this on IIS： In the Application_PreSendRequestHeaders() function in Global.asax, add the folowing： response.Headers.remove(""X-AspNet-Version"") To configure this in HAProxy： Add the following line to HAProxy's config： http-response del-header X-AspNet-Version</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -1152,10 +1088,6 @@
   </si>
   <si>
     <t>檢測到您的網站在不安全的連接上使用HTTP基本身份驗證，這可能會產生安全風險。 使攻擊者可以輕易的攔截登錄憑證，並將其憑證在其他主機重放，誘騙用戶將憑據提供給錯誤的位置。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Buffer Overflow： Integer Overflow</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -1286,10 +1218,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Misconfigured Headers： Missing Strict-Transport-Security</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>HTTP Strict Transport Security (HSTS) is a web security policy
  mechanism whereby a web server declares that complying user agents (such as a web browser) are to interact with it using only secure HTTPS connections (i.e. HTTP layered over TLS/SSL). HSTS is an IETF standards track protocol and is specified in RFC 6797.</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -1299,13 +1227,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Misconfigured Cookie： Missing HttpOnly Attribute</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Misconfigured Cookie： Missing Secure Attribute</t>
-  </si>
-  <si>
     <t>標頭配置錯誤（缺少 HttpOnly 屬性）</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -1326,10 +1247,6 @@
   </si>
   <si>
     <t>標頭配置錯誤（缺少 Cache-control and Pragma）</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Misconfigured Headers： Missing Cache-control and Pragma</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -1392,10 +1309,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Misconfigured Headers： X-Backend-Server</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>標頭配置錯誤（X-Backend-Server）</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -1437,10 +1350,6 @@
   </si>
   <si>
     <t>未被採用的 cookie</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Repeated GET requests： drop a different cookie each time, followed by normal request with all cookies to stabilize session, compare responses against original baseline GET. This can reveal areas where cookie based authentication/attributes are not actually enforced.</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -1560,16 +1469,6 @@
     <t>• 確保只從受信任的來源及域載入JavaScript文件 將所有應用程序文件託管在伺服器或直得信任的第三方服務（例如CDN）。</t>
   </si>
   <si>
-    <t xml:space="preserve">• 'X-Frame-Options： DENY' completely denies to be loaded in frame/iframe. In /etc/apache2/conf-enabled/security.conf (debian) or /etc/httpd/conf/httpd.conf (redhat), add the entry： Header set X-Frame-Options： DENY 
-• 'X-Frame-Options： SAMEORIGIN' allows only if the site which wants to load has a same origin. In /etc/apache2/conf-enabled/security.conf (debian) or /etc/httpd/conf/httpd.conf (redhat), add the entry： Header set X-Frame-Options： SAMEORIGIN 
-</t>
-  </si>
-  <si>
-    <t>• 如果您的網站不須使用X-Frame，請將X-Frame-Options設定為DENY，以預防攻擊者利用X-Frame攻擊。
-以常見的網站伺服器Apache為例，請在security.conf中新增一行設定「Header set X-Frame-Options: "DENY"」，其他網站伺服器請參考相關安全性設定。
-• 如果您的網站會用到來自內部的X-Frame，請將X-Frame-Options設定為SAMEORIGIN，以防止從外部嵌入的X-Frame。以常見的網站伺服器Apache為例，請在security.conf中新增一行設定「Header set X-Frame-Options: "SAMEORIGIN"」，其他網站伺服器請參考相關安全性設定。</t>
-  </si>
-  <si>
     <t>• 在您的WebServer設定一個帶有'nosniff'值的'X-Content-Type-Options'標頭。</t>
   </si>
   <si>
@@ -1596,15 +1495,6 @@
 • 移除或隱藏所有網頁上檢測到的非公開的電子郵件。
 • 請驗證所檢測的IP位置是否為機密信息。 
 • 移除或隱藏所有網頁上檢測到的非公開的IP位置。</t>
-  </si>
-  <si>
-    <t>• Find the location of Apache's main configuration file 'apache2.conf', usually under '/etc/apache2/apache2.conf'. 
-• Edit this file with root access to your server, and modify this line by adding a preceding '-' sign to the word 'Indexes'： 'Options Indexes FollowSymLinks' change to 'Options -Indexes FollowSymLinks' • Save the file and restart Apache Alternatively, edit the '.htaccess' and modify the Options line as 'Options -Indexes</t>
-  </si>
-  <si>
-    <t>• 查找Apache主要配置文件" apache2.conf”的位置，通常在“ /etc/apache2/apache2.conf”下。 
-• 使用對服務器的root訪問權限來編輯此文件，並通過在單詞“索引”中添加前面的“-”符號來修改此行： '選項索引FollowSymLinks'更改為'選項-索引FollowSymLinks' 。
-• 保存文件並重新啟動Apache 或者，編輯“ .htaccess”並將“選項”行修改為“選項-索引””</t>
   </si>
   <si>
     <t>• If possible, update to OpenSSL 1.0.1g or later. 
@@ -1629,25 +1519,8 @@
 etc. is configured to enforce Strict-Transport-Security.</t>
   </si>
   <si>
-    <t>• 在您的WebServer設定一個Strict-Transport-Security： max-age=31536000; includeSubDomains的標頭 ＊此設定會導致只能通過HTTP進行服務的頁面的訪問失敗。</t>
-  </si>
-  <si>
-    <t>•Remove the X-Powered-By HTTP header. To configure this on Apache： Add these lines in httpd.conf： &lt;IfModule mod_headers.c&gt; Header unset X-Powered-By &lt;/IfModule&gt; To configure this on nginx： Add this line in nginx.conf： proxy_hide_header X-Powered-By; Additionally, you must also modify the configuration for used languages(ex： PHP) and framework(ex： Tomcat) to remove the X-Powered-By header. To configure this on IIS： Change the system.webSerer section in Web.config as below： &lt;system.webServer&gt;</t>
-  </si>
-  <si>
     <t>• 在IIS伺服器中的Web.config修改system.webServer區段：
 &lt;httpProtocol&gt;&lt;customHeaders&gt;&lt;remove name="X-Powered-By" /&gt;&lt;/customHeaders&gt;&lt;/httpProtocol&gt;&lt;/system.webServer&gt;</t>
-  </si>
-  <si>
-    <t>•Ensure that your web server, application server, load balancer, etc. is configured to set the Content-Security-Policy header, to achieve optimal browser support： 'Content-Security-Policy' for Chrome 25+, Firefox 23+ and Safari 7+, 'X-Content-Security-Policy' for Firefox 4.0+ and Internet Explorer 10+, and 'X-WebKit-CSP' for Chrome 14+ and Safari 6+</t>
-  </si>
-  <si>
-    <t>• 限制外部連入的檔案和禁用inline語法，這是預設全部阻擋的寫法，也是最嚴格最安全的方案，設定範例如下
-content-security-policy: default-src 'none';
-• 增加外部連入的白名單，限制外部連入的來源，請避免在來源url中使用「*」，設定範例如下
-content-security-policy: default-src 'none'; 
-script-src 'self' https://www.google.com;
-• 避免在CSP設定中使用「unsafe-inline」</t>
   </si>
   <si>
     <t>• The best strategy to avoid mixed content blocking is to serve all the content as HTTPS instead of HTTP. A page that is available over SSL/TLS must be comprised completely of content which is transmitted over SSL/TLS. 
@@ -1693,17 +1566,6 @@
     <t>• SameSite有三個數值 — Strict、Lax和None建議依據網站需求參考Strict＆Lax進行設定Strict Strict的要求最為嚴格，完全禁止第三方Cookies，只有當前網頁的 URL與請求目標一致，才會送出Cookie。 這個規則非常嚴格，適合用於銀行需要交易的網站中，保障客戶資料的安全。Lax Lax的要求則較為寬鬆，大多數情況也是不發送Cookie到第三方 ，但是Get請求除外。 這是一個平衡網路安全和使用者體驗的做法。由於Cookies可以跨網站發送，而風險較高的要求，例如POST，在Lax的設定下將會被禁止，阻止cross-site request forgery attacks 進行。</t>
   </si>
   <si>
-    <t>• To prevent the use of 'unsafe-inline' but still use inline scripts and styles on a page, consider converting them to safe sources via nonces or hashes. 
-• For example, using the nonce-source you may specify inline style blocks with： ""Content-Security-Policy： style-src 'nonce-2726c7f26c'"" and set the same nonce on the style element： '&lt;style nonce=""2726c7f26c""&gt; #inline-style { background： red; } &lt;/style&gt;' • Hash-source inline styles can be achieved similarly.</t>
-  </si>
-  <si>
-    <t>• 移除X-AspNet-Version標頭。 
-• 設定Apache 在 httpd.conf中加入一行：Header unset X-AspNet-Version
-• 設定nginx在 nginx.conf的location區段中加入一行：proxy_hide_header X-AspNet-Version;
-• 設定 IIS在Global.asax的 Application_PreSendRequestHeaders()裡加入一行：response.Headers.remove("X-AspNet-Version") 
-• 設定HAProxy在HAProxy前端組態設定中加入一行： http-response del-header X-AspNet-Version。</t>
-  </si>
-  <si>
     <t xml:space="preserve">• If the application does not require cross-origin requests, check that no policy is set. 
 • The 'Access-Control-Allow-Origin' header should never be set to '*' or 'null', unless the whole content of the application is made to be public. Always ensure that it allows the most specific and restrictive set of domains. </t>
   </si>
@@ -1726,10 +1588,6 @@
 • 默認情況下不允許跨域身份驗證請求，如果父站點需要跨域身份驗證，則應通過CSP或類似的站點策略定義允許進行身份驗證的域白名單。 
 • 將所有內網內容列入白名單或代理，以阻止惡意身份驗證請求。 
 • 確保身份驗證token的安全並設置較短的到期時間。</t>
-  </si>
-  <si>
-    <t>• Add 'rel=""noopener noreferrer""' to every 'a'-element that has 'target=""_blank""'. 'noopener' ensures that the linked page does not have access to 'window.opener' from the linking page. 'noreferrer' makes sure that the request referrer header is not being sent. This is supported by most recent versions of modern browsers, with Internet Explorer being an exception. • If you are using JavaScript, the following achieves the same： 'var myNewWindow = window.open(url, name, ""noopener,noreferrer"") myNewWindow.opener = null' 
-• If you show user-generated content on your page you must sanitize the input and apply ""noopener noreferrer"" to every link.</t>
   </si>
   <si>
     <t>• 將html中所有用到開新視窗的跳轉連結加上noopener與noreferrer設定，以跳轉至google為例
@@ -1833,16 +1691,6 @@
 •限制用戶對資料庫的存取權限，僅給予最低能滿足需求的權限，進而減少此攻擊對資料庫的危害。</t>
   </si>
   <si>
-    <t>• Hide or remove Trace.axd in production stages. 
-• Disable the Trace Viewer unless it is actually required in development. Ensure access to it requires authentication and authorization. 
-• To disable ASP.NET tracing, apply the following changes to your web.config file： &lt;System.Web&gt; &lt;trace enabled=""false"" /&gt; &lt;/System.Web&gt;</t>
-  </si>
-  <si>
-    <t>• 應將此文件隱藏或從生產階段中刪除，因為它可能洩漏大量信息。 
-• 請考慮研發過程中是否實際需要Trace Viewer，如果不需要，則將其禁用。 
-• 若不禁用，請確保任何人進行存取時需要身份驗證和授權。 要禁用ASP.NET跟踪，請將以下更改應用於web.config文件： &lt;System.Web&gt; &lt;trace enabled=""false"" /&gt; &lt;/System.Web&gt;。</t>
-  </si>
-  <si>
     <t>• 確認網站上.htaccess 檔案的存取權限，確保使用者無法下載.htaccess 。
 • 設定完成後以報告中路徑測試，再次確認使用者無法存取檔案</t>
   </si>
@@ -1876,13 +1724,144 @@
   <si>
     <t>• 將流量代理到已知上游Server，通過IP地址或DNS名稱來標識Server進行過濾。 
 • 在NGINX配置中或使用Web應用程序防火牆（WAF），將所有帶有異常標頭值的請求丟棄。</t>
+  </si>
+  <si>
+    <t>We detected that your website is vulnerable to dirctory traversal.
+ A directory traversal attack allows an attacker access to arbritrary restricted files directories and sensitive commands by manipulating a url. Any device that exposes an http-based interface is potentially vulnerable to path traversal. This vulnerability allows attackers to read sensitive information within the websites restricted files, and may lead to data exposure, credential leakage, and accont compromise. Attackers may utilize special-characters sequences, for example the ../ special-character sequence, to alter the resource location requested in the url. Advanced information：Although most popular web servers will prevent this technique with security filters, attackers may bypass them using alternate encodings, including unicode-encoded slash characters, url encoded characters, and double url encodings. Even if the web server properly restricts path traversal attempts in the url path, a web application may still be vulnerable due to improper handling of user-supplied input, such as substituting the original url parameter value with the file name of one of the web application's dynamic scripts. Consequently the results can reveal source code because the file is interpreted as text instead of an executable script. These techniques often employ additional special characters such as the dot (.) to reveal the listing of the current working directory or %00 null characters in order to bypass rudimentary file extension checks.</t>
+  </si>
+  <si>
+    <t>Remote File Include (RFI) is an attack technique used to exploit “dynamic file include” mechanisms in web applications. When web applications take user input (URL, parameter value, etc.) and pass them into file include
+ commands, the web application might be tricked into including remote files with malicious code. Almost all web application frameworks support file inclusion. File inclusion is mainly used for packaging common code into separate files that are later referenced by main application modules. When a web application references an include file, the code in this file may be executed implicitly or explicitly by calling specific procedures. If the choice of module to load is based on elements from the HTTP request, the web application might be vulnerable to RFI. An attacker can use RFI for：* Running malicious code on the server：any code in the included malicious files will be run by the server. If the file include is not executed using some wrapper, code in include files is executed in the context of the server user. This could lead to a complete system compromise. * Running malicious code on clients：the attacker's malicious code can manipulate the content of the response sent to the client. The attacker can embed malicious code in the response that will be run by the client (for example, JavaScript to steal the client session cookies). PHP is particularly vulnerable to RFI attacks due to the extensive use of “file includes” in PHP programming and due to default server configurations that increase susceptibility to an RFI attack.</t>
+  </si>
+  <si>
+    <t>Misconfigured Cookie：Missing HttpOnly Attribute</t>
+  </si>
+  <si>
+    <t>Misconfigured Cookie：Missing Secure Attribute</t>
+  </si>
+  <si>
+    <t>Misconfigured Headers：Missing Cache-control and Pragma</t>
+  </si>
+  <si>
+    <t>Cross-Domain File Inclusion：Javascript</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• 'X-Frame-Options：DENY' completely denies to be loaded in frame/iframe. In /etc/apache2/conf-enabled/security.conf (debian) or /etc/httpd/conf/httpd.conf (redhat), add the entry：Header set X-Frame-Options：DENY 
+• 'X-Frame-Options：SAMEORIGIN' allows only if the site which wants to load has a same origin. In /etc/apache2/conf-enabled/security.conf (debian) or /etc/httpd/conf/httpd.conf (redhat), add the entry：Header set X-Frame-Options：SAMEORIGIN 
+</t>
+  </si>
+  <si>
+    <t>• 如果您的網站不須使用X-Frame，請將X-Frame-Options設定為DENY，以預防攻擊者利用X-Frame攻擊。
+以常見的網站伺服器Apache為例，請在security.conf中新增一行設定「Header set X-Frame-Options："DENY"」，其他網站伺服器請參考相關安全性設定。
+• 如果您的網站會用到來自內部的X-Frame，請將X-Frame-Options設定為SAMEORIGIN，以防止從外部嵌入的X-Frame。以常見的網站伺服器Apache為例，請在security.conf中新增一行設定「Header set X-Frame-Options："SAMEORIGIN"」，其他網站伺服器請參考相關安全性設定。</t>
+  </si>
+  <si>
+    <t>Misconfigured Headers：Missing X-Content-Type-Options</t>
+  </si>
+  <si>
+    <t>Open redirects are one of the OWASP 2010 Top Ten vulnerabilities. This check looks at user-supplied input in query string parameters and POST data to identify where open redirects might be possible. Open redirects occur when an application allows user-supplied input (e.g. http：//nottrusted.com) to control an offsite redirect. This is generally a pretty accurate way to find where 301 or 302 redirects could be exploited by spammers or phishing attacks. For example an attacker could supply a user with the following link：http：//example.com/example.php?url=http：//malicious.example.com.</t>
+  </si>
+  <si>
+    <t>• Find the location of Apache's main configuration file 'apache2.conf', usually under '/etc/apache2/apache2.conf'. 
+• Edit this file with root access to your server, and modify this line by adding a preceding '-' sign to the word 'Indexes'：'Options Indexes FollowSymLinks' change to 'Options -Indexes FollowSymLinks' • Save the file and restart Apache Alternatively, edit the '.htaccess' and modify the Options line as 'Options -Indexes</t>
+  </si>
+  <si>
+    <t>• 查找Apache主要配置文件" apache2.conf”的位置，通常在“ /etc/apache2/apache2.conf”下。 
+• 使用對服務器的root訪問權限來編輯此文件，並通過在單詞“索引”中添加前面的“-”符號來修改此行：'選項索引FollowSymLinks'更改為'選項-索引FollowSymLinks' 。
+• 保存文件並重新啟動Apache 或者，編輯“ .htaccess”並將“選項”行修改為“選項-索引””</t>
+  </si>
+  <si>
+    <t>Misconfigured Headers：Missing Strict-Transport-Security</t>
+  </si>
+  <si>
+    <t>• 在您的WebServer設定一個Strict-Transport-Security：max-age=31536000; includeSubDomains的標頭 ＊此設定會導致只能通過HTTP進行服務的頁面的訪問失敗。</t>
+  </si>
+  <si>
+    <t>Header Leakage：X-Powered-By</t>
+  </si>
+  <si>
+    <t>•Remove the X-Powered-By HTTP header. To configure this on Apache：Add these lines in httpd.conf：&lt;IfModule mod_headers.c&gt; Header unset X-Powered-By &lt;/IfModule&gt; To configure this on nginx：Add this line in nginx.conf：proxy_hide_header X-Powered-By; Additionally, you must also modify the configuration for used languages(ex：PHP) and framework(ex：Tomcat) to remove the X-Powered-By header. To configure this on IIS：Change the system.webSerer section in Web.config as below：&lt;system.webServer&gt;</t>
+  </si>
+  <si>
+    <t>Misconfigured Headers：Missing CSP</t>
+  </si>
+  <si>
+    <t>•Ensure that your web server, application server, load balancer, etc. is configured to set the Content-Security-Policy header, to achieve optimal browser support：'Content-Security-Policy' for Chrome 25+, Firefox 23+ and Safari 7+, 'X-Content-Security-Policy' for Firefox 4.0+ and Internet Explorer 10+, and 'X-WebKit-CSP' for Chrome 14+ and Safari 6+</t>
+  </si>
+  <si>
+    <t>• 限制外部連入的檔案和禁用inline語法，這是預設全部阻擋的寫法，也是最嚴格最安全的方案，設定範例如下
+content-security-policy：default-src 'none';
+• 增加外部連入的白名單，限制外部連入的來源，請避免在來源url中使用「*」，設定範例如下
+content-security-policy：default-src 'none'; 
+script-src 'self' https://www.google.com;
+• 避免在CSP設定中使用「unsafe-inline」</t>
+  </si>
+  <si>
+    <t>Misconfigured Headers：X-Backend-Server</t>
+  </si>
+  <si>
+    <t>Misconfigured Cookie：Missing SameSite Attribute</t>
+  </si>
+  <si>
+    <t>Misconfigured Headers：CSP</t>
+  </si>
+  <si>
+    <t>• To prevent the use of 'unsafe-inline' but still use inline scripts and styles on a page, consider converting them to safe sources via nonces or hashes. 
+• For example, using the nonce-source you may specify inline style blocks with：""Content-Security-Policy：style-src 'nonce-2726c7f26c'"" and set the same nonce on the style element：'&lt;style nonce=""2726c7f26c""&gt; #inline-style { background：red; } &lt;/style&gt;' • Hash-source inline styles can be achieved similarly.</t>
+  </si>
+  <si>
+    <t>Header Leakage：X-AspNet-Version</t>
+  </si>
+  <si>
+    <t>Remove the X-AspNet-Version HTTP header. To configure this 
+on Apache：Add this line in httpd.conf：Header unset X-AspNet-Version To configure this on nginx：Add this line in the location section in nginx.conf：proxy_hide_header X-AspNet-Version; To configure this on IIS：In the Application_PreSendRequestHeaders() function in Global.asax, add the folowing：response.Headers.remove(""X-AspNet-Version"") To configure this in HAProxy：Add the following line to HAProxy's config：http-response del-header X-AspNet-Version</t>
+  </si>
+  <si>
+    <t>• 移除X-AspNet-Version標頭。 
+• 設定Apache 在 httpd.conf中加入一行：Header unset X-AspNet-Version
+• 設定nginx在 nginx.conf的location區段中加入一行：proxy_hide_header X-AspNet-Version;
+• 設定 IIS在Global.asax的 Application_PreSendRequestHeaders()裡加入一行：response.Headers.remove("X-AspNet-Version") 
+• 設定HAProxy在HAProxy前端組態設定中加入一行：http-response del-header X-AspNet-Version。</t>
+  </si>
+  <si>
+    <t>Misconfigured Headers：CORS</t>
+  </si>
+  <si>
+    <t>We detected that your website has misconfigured CORS headers.
+ Due to a misconfigured 'Access-Control-Allow-Origin：*' header on the web server and third party resource loading in the webpage, the victim's browser may load malicious resources and execute harmful scripts. Impact includes credential theft, data leakage, and phishing attempts. Cross-Origin Resource Sharing (CORS) is an HTTP-header based mechanism that allows a server to indicate any other origins (domain, protocol, or port) than its own from which a browser should permit loading of resources. This helps restrict the loaded data to trusted sources and prevent the browser from loading malicious external content. Thus, setting a wildcard directive ('*') nulls the protection from CORS settings.</t>
+  </si>
+  <si>
+    <t>檢測到您的網站可能有會產生安全疑慮的CORS配置錯誤。常見於設置了「 Access-Control-Allow-Origin：*」，同時網頁引用的第三方網頁中包含XSS或CSRF程式碼，則會導致自身的網頁受到第三方網頁中的惡意程式攻擊。 跨域資源共享（CORS）是一種基於HTTP標頭的機制，它允許伺服器指示瀏覽器應允許加載的資源外的其他任何來源（域，協議或端口），若Web服務器上的“ Access-Control-Allow-Origin”標頭配置錯誤，可能會加載異常或惡意的Web瀏覽器數據。</t>
+  </si>
+  <si>
+    <t>• Add 'rel=""noopener noreferrer""' to every 'a'-element that has 'target=""_blank""'. 'noopener' ensures that the linked page does not have access to 'window.opener' from the linking page. 'noreferrer' makes sure that the request referrer header is not being sent. This is supported by most recent versions of modern browsers, with Internet Explorer being an exception. • If you are using JavaScript, the following achieves the same：'var myNewWindow = window.open(url, name, ""noopener,noreferrer"") myNewWindow.opener = null' 
+• If you show user-generated content on your page you must sanitize the input and apply ""noopener noreferrer"" to every link.</t>
+  </si>
+  <si>
+    <t>Buffer Overflow：Integer Overflow</t>
+  </si>
+  <si>
+    <t>Insecure HTTP Method：TRACE</t>
+  </si>
+  <si>
+    <t>• Hide or remove Trace.axd in production stages. 
+• Disable the Trace Viewer unless it is actually required in development. Ensure access to it requires authentication and authorization. 
+• To disable ASP.NET tracing, apply the following changes to your web.config file：&lt;System.Web&gt; &lt;trace enabled=""false"" /&gt; &lt;/System.Web&gt;</t>
+  </si>
+  <si>
+    <t>• 應將此文件隱藏或從生產階段中刪除，因為它可能洩漏大量信息。 
+• 請考慮研發過程中是否實際需要Trace Viewer，如果不需要，則將其禁用。 
+• 若不禁用，請確保任何人進行存取時需要身份驗證和授權。 要禁用ASP.NET跟踪，請將以下更改應用於web.config文件：&lt;System.Web&gt; &lt;trace enabled=""false"" /&gt; &lt;/System.Web&gt;。</t>
+  </si>
+  <si>
+    <t>Repeated GET requests：drop a different cookie each time, followed by normal request with all cookies to stabilize session, compare responses against original baseline GET. This can reveal areas where cookie based authentication/attributes are not actually enforced.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2840,7 +2819,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2850,25 +2829,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F77" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L83" sqref="L83"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="16.149999999999999"/>
   <cols>
-    <col min="1" max="2" width="8.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="55.625" style="1" customWidth="1"/>
-    <col min="4" max="6" width="10.625" style="1" customWidth="1"/>
-    <col min="7" max="12" width="55.625" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.75" style="1"/>
+    <col min="1" max="2" width="8.86328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="55.59765625" style="1" customWidth="1"/>
+    <col min="4" max="6" width="10.59765625" style="1" customWidth="1"/>
+    <col min="7" max="12" width="55.59765625" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.73046875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -2877,10 +2856,10 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>3</v>
@@ -2901,12 +2880,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>9</v>
@@ -2915,12 +2894,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -2929,12 +2908,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>11</v>
@@ -2943,12 +2922,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="363" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="370.9">
       <c r="A5" s="1">
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
@@ -2957,10 +2936,10 @@
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>120</v>
@@ -2969,24 +2948,24 @@
         <v>121</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>122</v>
+        <v>378</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>337</v>
+        <v>315</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="396" x14ac:dyDescent="0.25">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="403.15">
       <c r="A6" s="1">
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>13</v>
@@ -2995,33 +2974,33 @@
         <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="K6" s="2" t="s">
-        <v>339</v>
+        <v>317</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>41</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>14</v>
@@ -3030,12 +3009,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="82.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="80.650000000000006">
       <c r="A8" s="1">
         <v>42</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>15</v>
@@ -3044,36 +3023,36 @@
         <v>1</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>341</v>
+        <v>319</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="177.4">
       <c r="A9" s="1">
         <v>43</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>16</v>
@@ -3082,68 +3061,68 @@
         <v>1</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G9" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="J9" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="J9" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="K9" s="2" t="s">
-        <v>343</v>
+        <v>321</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="49.5" x14ac:dyDescent="0.25">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="64.5">
       <c r="A10" s="1">
         <v>10003</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D10" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>317</v>
+        <v>297</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="99" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="96.75">
       <c r="A11" s="1">
         <v>10010</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>17</v>
@@ -3152,36 +3131,36 @@
         <v>1</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>294</v>
+        <v>380</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>298</v>
+        <v>279</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>299</v>
+        <v>280</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>300</v>
+        <v>281</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="66" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="80.650000000000006">
       <c r="A12" s="1">
         <v>10011</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>18</v>
@@ -3190,36 +3169,36 @@
         <v>1</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>295</v>
+        <v>381</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>307</v>
+        <v>287</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="99" x14ac:dyDescent="0.25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="96.75">
       <c r="A13" s="1">
         <v>10015</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>19</v>
@@ -3228,36 +3207,36 @@
         <v>1</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>302</v>
+        <v>382</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>303</v>
+        <v>283</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>304</v>
+        <v>284</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="99" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="96.75">
       <c r="A14" s="1">
         <v>10017</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>20</v>
@@ -3266,36 +3245,36 @@
         <v>1</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>223</v>
+        <v>383</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="1">
         <v>10019</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>21</v>
@@ -3304,12 +3283,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="264" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="258">
       <c r="A16" s="1">
         <v>10020</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>22</v>
@@ -3318,74 +3297,74 @@
         <v>1</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="G16" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="J16" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>166</v>
-      </c>
       <c r="K16" s="2" t="s">
-        <v>350</v>
+        <v>384</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="115.5" x14ac:dyDescent="0.25">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="129">
       <c r="A17" s="1">
         <v>10021</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D17" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="D17" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>230</v>
-      </c>
       <c r="I17" s="2" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="115.5" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="112.9">
       <c r="A18" s="1">
         <v>10023</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>23</v>
@@ -3394,36 +3373,36 @@
         <v>1</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>309</v>
+        <v>289</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>311</v>
+        <v>291</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>312</v>
+        <v>292</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>353</v>
+        <v>329</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="1">
         <v>10024</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>24</v>
@@ -3432,12 +3411,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12">
       <c r="A20" s="1">
         <v>10025</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>25</v>
@@ -3446,12 +3425,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12">
       <c r="A21" s="1">
         <v>10026</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>26</v>
@@ -3460,12 +3439,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12">
       <c r="A22" s="1">
         <v>10027</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>27</v>
@@ -3474,12 +3453,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="148.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="145.15">
       <c r="A23" s="1">
         <v>10028</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>28</v>
@@ -3488,36 +3467,36 @@
         <v>1</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G23" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H23" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="I23" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="K23" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="I23" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="L23" s="2" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="1">
         <v>10029</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>29</v>
@@ -3526,12 +3505,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12">
       <c r="A25" s="1">
         <v>10030</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>30</v>
@@ -3540,12 +3519,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12">
       <c r="A26" s="1">
         <v>10031</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>31</v>
@@ -3554,12 +3533,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="132" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="129">
       <c r="A27" s="1">
         <v>10032</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>116</v>
@@ -3571,65 +3550,65 @@
         <v>116</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>356</v>
+        <v>332</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="115.5" x14ac:dyDescent="0.25">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="112.9">
       <c r="A28" s="1">
         <v>10033</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="D28" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>358</v>
+        <v>388</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="214.5" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="209.65">
       <c r="A29" s="1">
         <v>10034</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>32</v>
@@ -3638,10 +3617,10 @@
         <v>1</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>114</v>
@@ -3653,21 +3632,21 @@
         <v>115</v>
       </c>
       <c r="J29" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="K29" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="K29" s="2" t="s">
-        <v>360</v>
-      </c>
       <c r="L29" s="2" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="82.5" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="96.75">
       <c r="A30" s="1">
         <v>10035</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>33</v>
@@ -3676,30 +3655,30 @@
         <v>1</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>291</v>
+        <v>390</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>362</v>
+        <v>336</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="1">
         <v>10036</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>34</v>
@@ -3708,12 +3687,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="148.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="145.15">
       <c r="A32" s="1">
         <v>10037</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>35</v>
@@ -3722,74 +3701,74 @@
         <v>1</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>231</v>
+        <v>392</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>364</v>
+        <v>393</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="148.5" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="145.15">
       <c r="A33" s="1">
         <v>10038</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D33" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>211</v>
+        <v>394</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>366</v>
+        <v>395</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="66" x14ac:dyDescent="0.25">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="64.5">
       <c r="A34" s="1">
         <v>10039</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>36</v>
@@ -3798,36 +3777,36 @@
         <v>1</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>318</v>
+        <v>397</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>319</v>
+        <v>298</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>320</v>
+        <v>299</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>321</v>
+        <v>300</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>322</v>
+        <v>301</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="247.5" x14ac:dyDescent="0.25">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="258">
       <c r="A35" s="1">
         <v>10040</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>37</v>
@@ -3836,36 +3815,36 @@
         <v>1</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>314</v>
+        <v>294</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>313</v>
+        <v>293</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>315</v>
+        <v>295</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>316</v>
+        <v>296</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>368</v>
+        <v>338</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="99" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="96.75">
       <c r="A36" s="1">
         <v>10041</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>38</v>
@@ -3874,36 +3853,36 @@
         <v>1</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>370</v>
+        <v>340</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" ht="148.5" x14ac:dyDescent="0.25">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="145.15">
       <c r="A37" s="1">
         <v>10042</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>39</v>
@@ -3912,36 +3891,36 @@
         <v>1</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>372</v>
+        <v>342</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" s="1">
         <v>10043</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>40</v>
@@ -3950,12 +3929,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="66" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" ht="64.5">
       <c r="A39" s="1">
         <v>10044</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>41</v>
@@ -3964,36 +3943,36 @@
         <v>1</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>324</v>
+        <v>303</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>326</v>
+        <v>305</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>374</v>
+        <v>344</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" s="1">
         <v>10045</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>42</v>
@@ -4002,12 +3981,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12">
       <c r="A41" s="1">
         <v>10047</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>43</v>
@@ -4016,21 +3995,21 @@
         <v>1</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42" s="1">
         <v>10048</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>44</v>
@@ -4039,12 +4018,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12">
       <c r="A43" s="1">
         <v>10050</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>45</v>
@@ -4053,12 +4032,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12">
       <c r="A44" s="1">
         <v>10051</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>46</v>
@@ -4067,12 +4046,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12">
       <c r="A45" s="1">
         <v>10052</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>47</v>
@@ -4081,50 +4060,50 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="149.25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" ht="161.25">
       <c r="A46" s="1">
         <v>10054</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="D46" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>215</v>
+        <v>398</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>376</v>
+        <v>346</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" ht="132" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="129">
       <c r="A47" s="1">
         <v>10055</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>48</v>
@@ -4133,36 +4112,36 @@
         <v>1</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>176</v>
+        <v>399</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>378</v>
+        <v>400</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48" s="1">
         <v>10056</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>49</v>
@@ -4171,12 +4150,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12">
       <c r="A49" s="1">
         <v>10057</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>50</v>
@@ -4185,12 +4164,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12">
       <c r="A50" s="1">
         <v>10058</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>51</v>
@@ -4199,50 +4178,50 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="148.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" ht="161.25">
       <c r="A51" s="1">
         <v>10061</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="D51" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>236</v>
+        <v>401</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>240</v>
+        <v>402</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
       <c r="A52" s="1">
         <v>10062</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>52</v>
@@ -4254,12 +4233,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12">
       <c r="A53" s="1">
         <v>10095</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>54</v>
@@ -4268,12 +4247,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12">
       <c r="A54" s="1">
         <v>10096</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>55</v>
@@ -4282,12 +4261,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12">
       <c r="A55" s="1">
         <v>10097</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>56</v>
@@ -4299,50 +4278,50 @@
         <v>117</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="198" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" ht="193.5">
       <c r="A56" s="1">
         <v>10098</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D56" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>169</v>
+        <v>404</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>171</v>
+        <v>405</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>172</v>
+        <v>406</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>380</v>
+        <v>348</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
       <c r="A57" s="1">
         <v>10104</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>58</v>
@@ -4351,12 +4330,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="231" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" ht="225.75">
       <c r="A58" s="1">
         <v>10105</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>59</v>
@@ -4365,36 +4344,36 @@
         <v>1</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>382</v>
+        <v>350</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
       <c r="A59" s="1">
         <v>10106</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>60</v>
@@ -4403,12 +4382,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12">
       <c r="A60" s="1">
         <v>10107</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>61</v>
@@ -4417,12 +4396,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="198" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" ht="193.5">
       <c r="A61" s="1">
         <v>10108</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>62</v>
@@ -4431,33 +4410,33 @@
         <v>1</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>335</v>
+        <v>313</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>384</v>
+        <v>407</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
       <c r="A62" s="1">
         <v>10109</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>63</v>
@@ -4466,50 +4445,50 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="247.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" ht="241.9">
       <c r="A63" s="1">
         <v>10202</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="D63" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>119</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>386</v>
+        <v>353</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>388</v>
+        <v>355</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" ht="247.5" x14ac:dyDescent="0.25">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="241.9">
       <c r="A64" s="1">
         <v>20012</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>64</v>
@@ -4518,10 +4497,10 @@
         <v>1</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>118</v>
@@ -4530,24 +4509,24 @@
         <v>119</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>386</v>
+        <v>353</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>388</v>
+        <v>355</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
       <c r="A65" s="1">
         <v>20014</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>65</v>
@@ -4556,12 +4535,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12">
       <c r="A66" s="1">
         <v>20015</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>66</v>
@@ -4570,12 +4549,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12">
       <c r="A67" s="1">
         <v>20016</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>57</v>
@@ -4584,12 +4563,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12">
       <c r="A68" s="1">
         <v>20017</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>67</v>
@@ -4598,12 +4577,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12">
       <c r="A69" s="1">
         <v>20018</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>68</v>
@@ -4612,12 +4591,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12">
       <c r="A70" s="1">
         <v>20019</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>69</v>
@@ -4626,12 +4605,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" ht="161.25">
       <c r="A71" s="1">
         <v>30001</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>70</v>
@@ -4640,36 +4619,36 @@
         <v>1</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>390</v>
+        <v>357</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="161.25">
       <c r="A72" s="1">
         <v>30002</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>71</v>
@@ -4678,36 +4657,36 @@
         <v>1</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>71</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>392</v>
+        <v>359</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="161.25">
       <c r="A73" s="1">
         <v>30003</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>72</v>
@@ -4716,36 +4695,36 @@
         <v>1</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>270</v>
+        <v>408</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>394</v>
+        <v>361</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
       <c r="A74" s="1">
         <v>40003</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>73</v>
@@ -4754,12 +4733,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12">
       <c r="A75" s="1">
         <v>40008</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>74</v>
@@ -4768,12 +4747,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12">
       <c r="A76" s="1">
         <v>40009</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>75</v>
@@ -4782,12 +4761,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="280.5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" ht="290.25">
       <c r="A77" s="1">
         <v>40012</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>76</v>
@@ -4796,36 +4775,36 @@
         <v>1</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G77" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H77" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="H77" s="1" t="s">
+      <c r="I77" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="I77" s="2" t="s">
+      <c r="J77" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="J77" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="K77" s="2" t="s">
-        <v>396</v>
+        <v>363</v>
       </c>
       <c r="L77" s="2" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
       <c r="A78" s="1">
         <v>40013</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>77</v>
@@ -4834,12 +4813,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12">
       <c r="A79" s="1">
         <v>40014</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>78</v>
@@ -4848,12 +4827,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12">
       <c r="A80" s="1">
         <v>40016</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>79</v>
@@ -4862,12 +4841,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12">
       <c r="A81" s="1">
         <v>40017</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>80</v>
@@ -4876,12 +4855,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="231" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" ht="241.9">
       <c r="A82" s="1">
         <v>40018</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>81</v>
@@ -4890,36 +4869,36 @@
         <v>1</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G82" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H82" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="H82" s="1" t="s">
+      <c r="I82" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="J82" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="I82" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="J82" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="K82" s="2" t="s">
-        <v>396</v>
+        <v>363</v>
       </c>
       <c r="L82" s="2" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" ht="280.5" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" ht="290.25">
       <c r="A83" s="1">
         <v>40019</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>82</v>
@@ -4928,36 +4907,36 @@
         <v>1</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G83" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H83" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="H83" s="1" t="s">
+      <c r="I83" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="J83" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="I83" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="J83" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="K83" s="2" t="s">
-        <v>398</v>
+        <v>365</v>
       </c>
       <c r="L83" s="2" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" ht="231" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" ht="241.9">
       <c r="A84" s="1">
         <v>40020</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>83</v>
@@ -4966,33 +4945,33 @@
         <v>1</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G84" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H84" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="H84" s="1" t="s">
+      <c r="I84" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="J84" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="I84" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="J84" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="K84" s="2" t="s">
-        <v>396</v>
+        <v>363</v>
       </c>
       <c r="L84" s="2" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" ht="280.5" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" ht="290.25">
       <c r="A85" s="1">
         <v>40021</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>84</v>
@@ -5001,36 +4980,36 @@
         <v>1</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G85" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H85" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="H85" s="1" t="s">
+      <c r="I85" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="J85" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="I85" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="J85" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="K85" s="2" t="s">
-        <v>398</v>
+        <v>365</v>
       </c>
       <c r="L85" s="2" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" ht="280.5" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" ht="290.25">
       <c r="A86" s="1">
         <v>40022</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>85</v>
@@ -5039,36 +5018,36 @@
         <v>1</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G86" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H86" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="H86" s="1" t="s">
+      <c r="I86" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="J86" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="I86" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="J86" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="K86" s="2" t="s">
-        <v>398</v>
+        <v>365</v>
       </c>
       <c r="L86" s="2" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
       <c r="A87" s="1">
         <v>40023</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>86</v>
@@ -5077,12 +5056,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:12" ht="231" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" ht="241.9">
       <c r="A88" s="1">
         <v>40024</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>87</v>
@@ -5091,74 +5070,74 @@
         <v>1</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G88" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H88" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="H88" s="1" t="s">
+      <c r="I88" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="J88" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="I88" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="J88" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="K88" s="2" t="s">
-        <v>396</v>
+        <v>363</v>
       </c>
       <c r="L88" s="2" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" ht="231" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" ht="241.9">
       <c r="A89" s="1">
         <v>40025</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="D89" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>180</v>
+        <v>409</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>399</v>
+        <v>366</v>
       </c>
       <c r="L89" s="2" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
       <c r="A90" s="1">
         <v>40026</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>88</v>
@@ -5167,12 +5146,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:12" ht="231" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" ht="241.9">
       <c r="A91" s="1">
         <v>40027</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>89</v>
@@ -5181,36 +5160,36 @@
         <v>1</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G91" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H91" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="H91" s="1" t="s">
+      <c r="I91" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="J91" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="I91" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="J91" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="K91" s="2" t="s">
-        <v>396</v>
+        <v>363</v>
       </c>
       <c r="L91" s="2" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" ht="148.5" x14ac:dyDescent="0.25">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" ht="145.15">
       <c r="A92" s="1">
         <v>40028</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>90</v>
@@ -5219,36 +5198,36 @@
         <v>1</v>
       </c>
       <c r="E92" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="H92" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="F92" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="H92" s="1" t="s">
-        <v>277</v>
-      </c>
       <c r="I92" s="2" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="J92" s="2" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="L92" s="2" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
       <c r="A93" s="1">
         <v>40029</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>91</v>
@@ -5257,50 +5236,50 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:12" ht="82.5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" ht="80.650000000000006">
       <c r="A94" s="1">
         <v>40032</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="C94" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D94" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="I94" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="J94" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="K94" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="D94" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="G94" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="H94" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="I94" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="J94" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="K94" s="1" t="s">
-        <v>202</v>
-      </c>
       <c r="L94" s="2" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" ht="66" x14ac:dyDescent="0.25">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" ht="64.5">
       <c r="A95" s="1">
         <v>40034</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>92</v>
@@ -5309,36 +5288,36 @@
         <v>1</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="G95" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H95" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="I95" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="J95" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="K95" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="H95" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="I95" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="J95" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="K95" s="1" t="s">
-        <v>201</v>
-      </c>
       <c r="L95" s="2" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
       <c r="A96" s="1">
         <v>40035</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>93</v>
@@ -5347,12 +5326,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12">
       <c r="A97" s="1">
         <v>50000</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>94</v>
@@ -5361,12 +5340,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12">
       <c r="A98" s="1">
         <v>50001</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>95</v>
@@ -5375,12 +5354,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12">
       <c r="A99" s="1">
         <v>50003</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>96</v>
@@ -5389,12 +5368,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12">
       <c r="A100" s="1">
         <v>90001</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>97</v>
@@ -5403,12 +5382,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12">
       <c r="A101" s="1">
         <v>90011</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>98</v>
@@ -5417,12 +5396,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="132" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" ht="145.15">
       <c r="A102" s="1">
         <v>90017</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>99</v>
@@ -5431,36 +5410,36 @@
         <v>1</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="J102" s="2" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="K102" s="1" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="L102" s="2" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12">
       <c r="A103" s="1">
         <v>90019</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>100</v>
@@ -5469,12 +5448,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:12" ht="148.5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" ht="161.25">
       <c r="A104" s="1">
         <v>90020</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>101</v>
@@ -5483,36 +5462,36 @@
         <v>1</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G104" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="I104" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="J104" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="K104" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="H104" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="I104" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="J104" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="K104" s="2" t="s">
-        <v>161</v>
-      </c>
       <c r="L104" s="2" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12">
       <c r="A105" s="1">
         <v>90021</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>102</v>
@@ -5521,12 +5500,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:12" ht="132" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" ht="129">
       <c r="A106" s="1">
         <v>90022</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>103</v>
@@ -5535,36 +5514,36 @@
         <v>1</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="J106" s="2" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="K106" s="2" t="s">
-        <v>408</v>
+        <v>373</v>
       </c>
       <c r="L106" s="2" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12">
       <c r="A107" s="1">
         <v>90023</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>104</v>
@@ -5573,12 +5552,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:12" ht="148.5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" ht="145.15">
       <c r="A108" s="1">
         <v>90024</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>105</v>
@@ -5587,36 +5566,36 @@
         <v>1</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="G108" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I108" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="J108" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="H108" s="1" t="s">
+      <c r="K108" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="I108" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="J108" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="K108" s="2" t="s">
-        <v>148</v>
-      </c>
       <c r="L108" s="2" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12">
       <c r="A109" s="1">
         <v>90025</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>106</v>
@@ -5625,12 +5604,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12">
       <c r="A110" s="1">
         <v>90026</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>107</v>
@@ -5639,12 +5618,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:12" ht="66" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" ht="80.650000000000006">
       <c r="A111" s="1">
         <v>90027</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>108</v>
@@ -5653,36 +5632,36 @@
         <v>1</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>328</v>
+        <v>307</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>329</v>
+        <v>308</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>330</v>
+        <v>412</v>
       </c>
       <c r="J111" s="2" t="s">
-        <v>331</v>
+        <v>309</v>
       </c>
       <c r="K111" s="2" t="s">
-        <v>332</v>
+        <v>310</v>
       </c>
       <c r="L111" s="1" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12">
       <c r="A112" s="1">
         <v>90028</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>109</v>
@@ -5691,12 +5670,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12">
       <c r="A113" s="1">
         <v>90029</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>110</v>
@@ -5705,12 +5684,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12">
       <c r="A114" s="1">
         <v>90030</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>111</v>
@@ -5719,12 +5698,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12">
       <c r="A115" s="1">
         <v>90033</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>112</v>
@@ -5733,12 +5712,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:12" ht="115.5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" ht="112.9">
       <c r="A116" s="1">
         <v>90034</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>113</v>
@@ -5747,28 +5726,28 @@
         <v>1</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G116" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="I116" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="J116" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="H116" s="1" t="s">
+      <c r="K116" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="I116" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="J116" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="K116" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="L116" s="2" t="s">
-        <v>412</v>
+        <v>377</v>
       </c>
     </row>
   </sheetData>
